--- a/data/clean/output_data_example.xlsx
+++ b/data/clean/output_data_example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU442"/>
+  <dimension ref="A1:AV442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +669,11 @@
           <t>temperature_results</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>revised_temperature_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -843,6 +848,9 @@
       </c>
       <c r="AU2" t="n">
         <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="3">
@@ -995,6 +1003,9 @@
       <c r="AU3" t="n">
         <v>1</v>
       </c>
+      <c r="AV3" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1128,6 +1139,9 @@
       <c r="AU4" t="n">
         <v>0.7273256236817223</v>
       </c>
+      <c r="AV4" t="n">
+        <v>2.78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1302,6 +1316,9 @@
       </c>
       <c r="AU5" t="n">
         <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row r="6">
@@ -1454,6 +1471,9 @@
       <c r="AU6" t="n">
         <v>1</v>
       </c>
+      <c r="AV6" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1587,6 +1607,9 @@
       <c r="AU7" t="n">
         <v>0.7273256236817223</v>
       </c>
+      <c r="AV7" t="n">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1738,6 +1761,9 @@
       <c r="AU8" t="n">
         <v>1</v>
       </c>
+      <c r="AV8" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1889,6 +1915,9 @@
       <c r="AU9" t="n">
         <v>1</v>
       </c>
+      <c r="AV9" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2022,6 +2051,9 @@
       <c r="AU10" t="n">
         <v>1</v>
       </c>
+      <c r="AV10" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2173,6 +2205,9 @@
       <c r="AU11" t="n">
         <v>1</v>
       </c>
+      <c r="AV11" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2324,6 +2359,9 @@
       <c r="AU12" t="n">
         <v>1</v>
       </c>
+      <c r="AV12" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2457,6 +2495,9 @@
       <c r="AU13" t="n">
         <v>1</v>
       </c>
+      <c r="AV13" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2634,6 +2675,9 @@
       <c r="AU14" t="n">
         <v>0</v>
       </c>
+      <c r="AV14" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2810,6 +2854,9 @@
       </c>
       <c r="AU15" t="n">
         <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="16">
@@ -2944,6 +2991,9 @@
       <c r="AU16" t="n">
         <v>0</v>
       </c>
+      <c r="AV16" t="n">
+        <v>3.31</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3095,6 +3145,9 @@
       <c r="AU17" t="n">
         <v>1</v>
       </c>
+      <c r="AV17" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3246,6 +3299,9 @@
       <c r="AU18" t="n">
         <v>1</v>
       </c>
+      <c r="AV18" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3379,6 +3435,9 @@
       <c r="AU19" t="n">
         <v>1</v>
       </c>
+      <c r="AV19" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3530,6 +3589,9 @@
       <c r="AU20" t="n">
         <v>1</v>
       </c>
+      <c r="AV20" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3681,6 +3743,9 @@
       <c r="AU21" t="n">
         <v>1</v>
       </c>
+      <c r="AV21" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3814,6 +3879,9 @@
       <c r="AU22" t="n">
         <v>1</v>
       </c>
+      <c r="AV22" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3965,6 +4033,9 @@
       <c r="AU23" t="n">
         <v>1</v>
       </c>
+      <c r="AV23" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4116,6 +4187,9 @@
       <c r="AU24" t="n">
         <v>1</v>
       </c>
+      <c r="AV24" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4249,6 +4323,9 @@
       <c r="AU25" t="n">
         <v>1</v>
       </c>
+      <c r="AV25" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4400,6 +4477,9 @@
       <c r="AU26" t="n">
         <v>1</v>
       </c>
+      <c r="AV26" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4572,6 +4652,9 @@
       </c>
       <c r="AU27" t="n">
         <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>4.62</v>
       </c>
     </row>
     <row r="28">
@@ -4706,6 +4789,9 @@
       <c r="AU28" t="n">
         <v>0.1518518518518731</v>
       </c>
+      <c r="AV28" t="n">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4857,6 +4943,9 @@
       <c r="AU29" t="n">
         <v>1</v>
       </c>
+      <c r="AV29" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5008,6 +5097,9 @@
       <c r="AU30" t="n">
         <v>1</v>
       </c>
+      <c r="AV30" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5141,6 +5233,9 @@
       <c r="AU31" t="n">
         <v>1</v>
       </c>
+      <c r="AV31" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5318,6 +5413,9 @@
       <c r="AU32" t="n">
         <v>0</v>
       </c>
+      <c r="AV32" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5494,6 +5592,9 @@
       </c>
       <c r="AU33" t="n">
         <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="34">
@@ -5628,6 +5729,9 @@
       <c r="AU34" t="n">
         <v>0</v>
       </c>
+      <c r="AV34" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5779,6 +5883,9 @@
       <c r="AU35" t="n">
         <v>1</v>
       </c>
+      <c r="AV35" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5930,6 +6037,9 @@
       <c r="AU36" t="n">
         <v>1</v>
       </c>
+      <c r="AV36" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6063,6 +6173,9 @@
       <c r="AU37" t="n">
         <v>1</v>
       </c>
+      <c r="AV37" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6240,6 +6353,9 @@
       <c r="AU38" t="n">
         <v>0</v>
       </c>
+      <c r="AV38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6416,6 +6532,9 @@
       </c>
       <c r="AU39" t="n">
         <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -6550,6 +6669,9 @@
       <c r="AU40" t="n">
         <v>0</v>
       </c>
+      <c r="AV40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6701,6 +6823,9 @@
       <c r="AU41" t="n">
         <v>1</v>
       </c>
+      <c r="AV41" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6852,6 +6977,9 @@
       <c r="AU42" t="n">
         <v>1</v>
       </c>
+      <c r="AV42" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6985,6 +7113,9 @@
       <c r="AU43" t="n">
         <v>1</v>
       </c>
+      <c r="AV43" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7136,6 +7267,9 @@
       <c r="AU44" t="n">
         <v>1</v>
       </c>
+      <c r="AV44" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7287,6 +7421,9 @@
       <c r="AU45" t="n">
         <v>1</v>
       </c>
+      <c r="AV45" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7420,6 +7557,9 @@
       <c r="AU46" t="n">
         <v>1</v>
       </c>
+      <c r="AV46" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7594,6 +7734,9 @@
       </c>
       <c r="AU47" t="n">
         <v>0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="48">
@@ -7746,6 +7889,9 @@
       <c r="AU48" t="n">
         <v>1</v>
       </c>
+      <c r="AV48" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7879,6 +8025,9 @@
       <c r="AU49" t="n">
         <v>0.7012987012987671</v>
       </c>
+      <c r="AV49" t="n">
+        <v>2.68</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8030,6 +8179,9 @@
       <c r="AU50" t="n">
         <v>1</v>
       </c>
+      <c r="AV50" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8181,6 +8333,9 @@
       <c r="AU51" t="n">
         <v>1</v>
       </c>
+      <c r="AV51" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8314,6 +8469,9 @@
       <c r="AU52" t="n">
         <v>1</v>
       </c>
+      <c r="AV52" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8465,6 +8623,9 @@
       <c r="AU53" t="n">
         <v>1</v>
       </c>
+      <c r="AV53" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8616,6 +8777,9 @@
       <c r="AU54" t="n">
         <v>1</v>
       </c>
+      <c r="AV54" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8749,6 +8913,9 @@
       <c r="AU55" t="n">
         <v>1</v>
       </c>
+      <c r="AV55" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8925,6 +9092,9 @@
       </c>
       <c r="AU56" t="n">
         <v>0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>3.16</v>
       </c>
     </row>
     <row r="57">
@@ -9077,6 +9247,9 @@
       <c r="AU57" t="n">
         <v>1</v>
       </c>
+      <c r="AV57" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9210,6 +9383,9 @@
       <c r="AU58" t="n">
         <v>0.7273256236817111</v>
       </c>
+      <c r="AV58" t="n">
+        <v>3.19</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9361,6 +9537,9 @@
       <c r="AU59" t="n">
         <v>1</v>
       </c>
+      <c r="AV59" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9533,6 +9712,9 @@
       </c>
       <c r="AU60" t="n">
         <v>0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="61">
@@ -9667,6 +9849,9 @@
       <c r="AU61" t="n">
         <v>0.2726743763182889</v>
       </c>
+      <c r="AV61" t="n">
+        <v>2.52</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9818,6 +10003,9 @@
       <c r="AU62" t="n">
         <v>1</v>
       </c>
+      <c r="AV62" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9969,6 +10157,9 @@
       <c r="AU63" t="n">
         <v>1</v>
       </c>
+      <c r="AV63" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10102,6 +10293,9 @@
       <c r="AU64" t="n">
         <v>1</v>
       </c>
+      <c r="AV64" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10253,6 +10447,9 @@
       <c r="AU65" t="n">
         <v>1</v>
       </c>
+      <c r="AV65" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10404,6 +10601,9 @@
       <c r="AU66" t="n">
         <v>1</v>
       </c>
+      <c r="AV66" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10537,6 +10737,9 @@
       <c r="AU67" t="n">
         <v>1</v>
       </c>
+      <c r="AV67" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10688,6 +10891,9 @@
       <c r="AU68" t="n">
         <v>1</v>
       </c>
+      <c r="AV68" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10839,6 +11045,9 @@
       <c r="AU69" t="n">
         <v>1</v>
       </c>
+      <c r="AV69" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10972,6 +11181,9 @@
       <c r="AU70" t="n">
         <v>1</v>
       </c>
+      <c r="AV70" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11123,6 +11335,9 @@
       <c r="AU71" t="n">
         <v>1</v>
       </c>
+      <c r="AV71" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11274,6 +11489,9 @@
       <c r="AU72" t="n">
         <v>1</v>
       </c>
+      <c r="AV72" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11407,6 +11625,9 @@
       <c r="AU73" t="n">
         <v>1</v>
       </c>
+      <c r="AV73" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11558,6 +11779,9 @@
       <c r="AU74" t="n">
         <v>1</v>
       </c>
+      <c r="AV74" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11709,6 +11933,9 @@
       <c r="AU75" t="n">
         <v>1</v>
       </c>
+      <c r="AV75" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11842,6 +12069,9 @@
       <c r="AU76" t="n">
         <v>1</v>
       </c>
+      <c r="AV76" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -12016,6 +12246,9 @@
       </c>
       <c r="AU77" t="n">
         <v>0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>3.83</v>
       </c>
     </row>
     <row r="78">
@@ -12168,6 +12401,9 @@
       <c r="AU78" t="n">
         <v>1</v>
       </c>
+      <c r="AV78" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12301,6 +12537,9 @@
       <c r="AU79" t="n">
         <v>0.7203579418344516</v>
       </c>
+      <c r="AV79" t="n">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12452,6 +12691,9 @@
       <c r="AU80" t="n">
         <v>1</v>
       </c>
+      <c r="AV80" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -12603,6 +12845,9 @@
       <c r="AU81" t="n">
         <v>1</v>
       </c>
+      <c r="AV81" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12736,6 +12981,9 @@
       <c r="AU82" t="n">
         <v>1</v>
       </c>
+      <c r="AV82" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12887,6 +13135,9 @@
       <c r="AU83" t="n">
         <v>1</v>
       </c>
+      <c r="AV83" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13038,6 +13289,9 @@
       <c r="AU84" t="n">
         <v>1</v>
       </c>
+      <c r="AV84" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13171,6 +13425,9 @@
       <c r="AU85" t="n">
         <v>1</v>
       </c>
+      <c r="AV85" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -13322,6 +13579,9 @@
       <c r="AU86" t="n">
         <v>1</v>
       </c>
+      <c r="AV86" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -13473,6 +13733,9 @@
       <c r="AU87" t="n">
         <v>1</v>
       </c>
+      <c r="AV87" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13606,6 +13869,9 @@
       <c r="AU88" t="n">
         <v>1</v>
       </c>
+      <c r="AV88" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -13757,6 +14023,9 @@
       <c r="AU89" t="n">
         <v>1</v>
       </c>
+      <c r="AV89" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -13908,6 +14177,9 @@
       <c r="AU90" t="n">
         <v>1</v>
       </c>
+      <c r="AV90" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -14041,6 +14313,9 @@
       <c r="AU91" t="n">
         <v>1</v>
       </c>
+      <c r="AV91" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -14192,6 +14467,9 @@
       <c r="AU92" t="n">
         <v>1</v>
       </c>
+      <c r="AV92" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -14343,6 +14621,9 @@
       <c r="AU93" t="n">
         <v>1</v>
       </c>
+      <c r="AV93" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -14476,6 +14757,9 @@
       <c r="AU94" t="n">
         <v>1</v>
       </c>
+      <c r="AV94" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -14650,6 +14934,9 @@
       </c>
       <c r="AU95" t="n">
         <v>0</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="96">
@@ -14823,6 +15110,9 @@
       </c>
       <c r="AU96" t="n">
         <v>0</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>3.52</v>
       </c>
     </row>
     <row r="97">
@@ -14957,6 +15247,9 @@
       <c r="AU97" t="n">
         <v>0</v>
       </c>
+      <c r="AV97" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -15108,6 +15401,9 @@
       <c r="AU98" t="n">
         <v>1</v>
       </c>
+      <c r="AV98" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15259,6 +15555,9 @@
       <c r="AU99" t="n">
         <v>1</v>
       </c>
+      <c r="AV99" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -15392,6 +15691,9 @@
       <c r="AU100" t="n">
         <v>1</v>
       </c>
+      <c r="AV100" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -15566,6 +15868,9 @@
       </c>
       <c r="AU101" t="n">
         <v>0</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="102">
@@ -15718,6 +16023,9 @@
       <c r="AU102" t="n">
         <v>1</v>
       </c>
+      <c r="AV102" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -15851,6 +16159,9 @@
       <c r="AU103" t="n">
         <v>0.7203579418344515</v>
       </c>
+      <c r="AV103" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16025,6 +16336,9 @@
       </c>
       <c r="AU104" t="n">
         <v>0</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="105">
@@ -16177,6 +16491,9 @@
       <c r="AU105" t="n">
         <v>1</v>
       </c>
+      <c r="AV105" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16310,6 +16627,9 @@
       <c r="AU106" t="n">
         <v>0.7203579418344515</v>
       </c>
+      <c r="AV106" t="n">
+        <v>2.43</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -16461,6 +16781,9 @@
       <c r="AU107" t="n">
         <v>1</v>
       </c>
+      <c r="AV107" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16612,6 +16935,9 @@
       <c r="AU108" t="n">
         <v>1</v>
       </c>
+      <c r="AV108" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -16745,6 +17071,9 @@
       <c r="AU109" t="n">
         <v>1</v>
       </c>
+      <c r="AV109" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -16896,6 +17225,9 @@
       <c r="AU110" t="n">
         <v>1</v>
       </c>
+      <c r="AV110" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -17047,6 +17379,9 @@
       <c r="AU111" t="n">
         <v>1</v>
       </c>
+      <c r="AV111" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -17180,6 +17515,9 @@
       <c r="AU112" t="n">
         <v>1</v>
       </c>
+      <c r="AV112" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -17331,6 +17669,9 @@
       <c r="AU113" t="n">
         <v>1</v>
       </c>
+      <c r="AV113" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -17482,6 +17823,9 @@
       <c r="AU114" t="n">
         <v>1</v>
       </c>
+      <c r="AV114" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -17615,6 +17959,9 @@
       <c r="AU115" t="n">
         <v>1</v>
       </c>
+      <c r="AV115" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -17766,6 +18113,9 @@
       <c r="AU116" t="n">
         <v>1</v>
       </c>
+      <c r="AV116" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -17917,6 +18267,9 @@
       <c r="AU117" t="n">
         <v>1</v>
       </c>
+      <c r="AV117" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -18050,6 +18403,9 @@
       <c r="AU118" t="n">
         <v>1</v>
       </c>
+      <c r="AV118" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -18224,6 +18580,9 @@
       </c>
       <c r="AU119" t="n">
         <v>0</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="120">
@@ -18376,6 +18735,9 @@
       <c r="AU120" t="n">
         <v>1</v>
       </c>
+      <c r="AV120" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -18509,6 +18871,9 @@
       <c r="AU121" t="n">
         <v>0.7203579418344523</v>
       </c>
+      <c r="AV121" t="n">
+        <v>2.47</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -18683,6 +19048,9 @@
       </c>
       <c r="AU122" t="n">
         <v>0</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="123">
@@ -18835,6 +19203,9 @@
       <c r="AU123" t="n">
         <v>1</v>
       </c>
+      <c r="AV123" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -18968,6 +19339,9 @@
       <c r="AU124" t="n">
         <v>0.7203579418344523</v>
       </c>
+      <c r="AV124" t="n">
+        <v>2.91</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -19119,6 +19493,9 @@
       <c r="AU125" t="n">
         <v>1</v>
       </c>
+      <c r="AV125" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -19270,6 +19647,9 @@
       <c r="AU126" t="n">
         <v>1</v>
       </c>
+      <c r="AV126" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -19403,6 +19783,9 @@
       <c r="AU127" t="n">
         <v>1</v>
       </c>
+      <c r="AV127" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -19554,6 +19937,9 @@
       <c r="AU128" t="n">
         <v>1</v>
       </c>
+      <c r="AV128" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -19705,6 +20091,9 @@
       <c r="AU129" t="n">
         <v>1</v>
       </c>
+      <c r="AV129" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -19838,6 +20227,9 @@
       <c r="AU130" t="n">
         <v>1</v>
       </c>
+      <c r="AV130" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -20012,6 +20404,9 @@
       </c>
       <c r="AU131" t="n">
         <v>0</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -20164,6 +20559,9 @@
       <c r="AU132" t="n">
         <v>1</v>
       </c>
+      <c r="AV132" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -20297,6 +20695,9 @@
       <c r="AU133" t="n">
         <v>0.7273256236816983</v>
       </c>
+      <c r="AV133" t="n">
+        <v>2.87</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -20448,6 +20849,9 @@
       <c r="AU134" t="n">
         <v>1</v>
       </c>
+      <c r="AV134" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -20599,6 +21003,9 @@
       <c r="AU135" t="n">
         <v>1</v>
       </c>
+      <c r="AV135" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -20732,6 +21139,9 @@
       <c r="AU136" t="n">
         <v>1</v>
       </c>
+      <c r="AV136" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -20883,6 +21293,9 @@
       <c r="AU137" t="n">
         <v>1</v>
       </c>
+      <c r="AV137" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -21034,6 +21447,9 @@
       <c r="AU138" t="n">
         <v>1</v>
       </c>
+      <c r="AV138" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -21167,6 +21583,9 @@
       <c r="AU139" t="n">
         <v>1</v>
       </c>
+      <c r="AV139" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -21318,6 +21737,9 @@
       <c r="AU140" t="n">
         <v>1</v>
       </c>
+      <c r="AV140" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -21469,6 +21891,9 @@
       <c r="AU141" t="n">
         <v>1</v>
       </c>
+      <c r="AV141" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -21602,6 +22027,9 @@
       <c r="AU142" t="n">
         <v>1</v>
       </c>
+      <c r="AV142" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -21776,6 +22204,9 @@
       </c>
       <c r="AU143" t="n">
         <v>0</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="144">
@@ -21928,6 +22359,9 @@
       <c r="AU144" t="n">
         <v>1</v>
       </c>
+      <c r="AV144" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -22061,6 +22495,9 @@
       <c r="AU145" t="n">
         <v>0.5745205865764237</v>
       </c>
+      <c r="AV145" t="n">
+        <v>2.72</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -22212,6 +22649,9 @@
       <c r="AU146" t="n">
         <v>1</v>
       </c>
+      <c r="AV146" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -22363,6 +22803,9 @@
       <c r="AU147" t="n">
         <v>1</v>
       </c>
+      <c r="AV147" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -22496,6 +22939,9 @@
       <c r="AU148" t="n">
         <v>1</v>
       </c>
+      <c r="AV148" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -22647,6 +23093,9 @@
       <c r="AU149" t="n">
         <v>1</v>
       </c>
+      <c r="AV149" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -22819,6 +23268,9 @@
       </c>
       <c r="AU150" t="n">
         <v>0</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>2.64</v>
       </c>
     </row>
     <row r="151">
@@ -22953,6 +23405,9 @@
       <c r="AU151" t="n">
         <v>0.2005649717505835</v>
       </c>
+      <c r="AV151" t="n">
+        <v>2.76</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -23104,6 +23559,9 @@
       <c r="AU152" t="n">
         <v>1</v>
       </c>
+      <c r="AV152" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -23255,6 +23713,9 @@
       <c r="AU153" t="n">
         <v>1</v>
       </c>
+      <c r="AV153" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -23388,6 +23849,9 @@
       <c r="AU154" t="n">
         <v>1</v>
       </c>
+      <c r="AV154" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -23539,6 +24003,9 @@
       <c r="AU155" t="n">
         <v>1</v>
       </c>
+      <c r="AV155" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -23690,6 +24157,9 @@
       <c r="AU156" t="n">
         <v>1</v>
       </c>
+      <c r="AV156" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -23823,6 +24293,9 @@
       <c r="AU157" t="n">
         <v>1</v>
       </c>
+      <c r="AV157" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -23974,6 +24447,9 @@
       <c r="AU158" t="n">
         <v>1</v>
       </c>
+      <c r="AV158" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -24146,6 +24622,9 @@
       </c>
       <c r="AU159" t="n">
         <v>0</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="160">
@@ -24280,6 +24759,9 @@
       <c r="AU160" t="n">
         <v>0.4254794134235768</v>
       </c>
+      <c r="AV160" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -24431,6 +24913,9 @@
       <c r="AU161" t="n">
         <v>1</v>
       </c>
+      <c r="AV161" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -24582,6 +25067,9 @@
       <c r="AU162" t="n">
         <v>1</v>
       </c>
+      <c r="AV162" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -24715,6 +25203,9 @@
       <c r="AU163" t="n">
         <v>1</v>
       </c>
+      <c r="AV163" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -24889,6 +25380,9 @@
       </c>
       <c r="AU164" t="n">
         <v>0</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="165">
@@ -25041,6 +25535,9 @@
       <c r="AU165" t="n">
         <v>1</v>
       </c>
+      <c r="AV165" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -25174,6 +25671,9 @@
       <c r="AU166" t="n">
         <v>0.5745205865755186</v>
       </c>
+      <c r="AV166" t="n">
+        <v>2.28</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -25325,6 +25825,9 @@
       <c r="AU167" t="n">
         <v>1</v>
       </c>
+      <c r="AV167" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -25497,6 +26000,9 @@
       </c>
       <c r="AU168" t="n">
         <v>0</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>2.31</v>
       </c>
     </row>
     <row r="169">
@@ -25631,6 +26137,9 @@
       <c r="AU169" t="n">
         <v>0.4254794134244814</v>
       </c>
+      <c r="AV169" t="n">
+        <v>2.69</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -25782,6 +26291,9 @@
       <c r="AU170" t="n">
         <v>1</v>
       </c>
+      <c r="AV170" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -25933,6 +26445,9 @@
       <c r="AU171" t="n">
         <v>1</v>
       </c>
+      <c r="AV171" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -26066,6 +26581,9 @@
       <c r="AU172" t="n">
         <v>1</v>
       </c>
+      <c r="AV172" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -26217,6 +26735,9 @@
       <c r="AU173" t="n">
         <v>1</v>
       </c>
+      <c r="AV173" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -26368,6 +26889,9 @@
       <c r="AU174" t="n">
         <v>1</v>
       </c>
+      <c r="AV174" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -26501,6 +27025,9 @@
       <c r="AU175" t="n">
         <v>1</v>
       </c>
+      <c r="AV175" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -26652,6 +27179,9 @@
       <c r="AU176" t="n">
         <v>1</v>
       </c>
+      <c r="AV176" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -26803,6 +27333,9 @@
       <c r="AU177" t="n">
         <v>1</v>
       </c>
+      <c r="AV177" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -26936,6 +27469,9 @@
       <c r="AU178" t="n">
         <v>1</v>
       </c>
+      <c r="AV178" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -27087,6 +27623,9 @@
       <c r="AU179" t="n">
         <v>1</v>
       </c>
+      <c r="AV179" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -27238,6 +27777,9 @@
       <c r="AU180" t="n">
         <v>1</v>
       </c>
+      <c r="AV180" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -27371,6 +27913,9 @@
       <c r="AU181" t="n">
         <v>1</v>
       </c>
+      <c r="AV181" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -27522,6 +28067,9 @@
       <c r="AU182" t="n">
         <v>1</v>
       </c>
+      <c r="AV182" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -27673,6 +28221,9 @@
       <c r="AU183" t="n">
         <v>1</v>
       </c>
+      <c r="AV183" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -27806,6 +28357,9 @@
       <c r="AU184" t="n">
         <v>1</v>
       </c>
+      <c r="AV184" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -27957,6 +28511,9 @@
       <c r="AU185" t="n">
         <v>1</v>
       </c>
+      <c r="AV185" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -28129,6 +28686,9 @@
       </c>
       <c r="AU186" t="n">
         <v>0</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>2.23</v>
       </c>
     </row>
     <row r="187">
@@ -28263,6 +28823,9 @@
       <c r="AU187" t="n">
         <v>0.2726743763182766</v>
       </c>
+      <c r="AV187" t="n">
+        <v>2.49</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -28414,6 +28977,9 @@
       <c r="AU188" t="n">
         <v>1</v>
       </c>
+      <c r="AV188" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -28565,6 +29131,9 @@
       <c r="AU189" t="n">
         <v>1</v>
       </c>
+      <c r="AV189" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -28698,6 +29267,9 @@
       <c r="AU190" t="n">
         <v>1</v>
       </c>
+      <c r="AV190" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -28849,6 +29421,9 @@
       <c r="AU191" t="n">
         <v>1</v>
       </c>
+      <c r="AV191" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -29000,6 +29575,9 @@
       <c r="AU192" t="n">
         <v>1</v>
       </c>
+      <c r="AV192" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -29133,6 +29711,9 @@
       <c r="AU193" t="n">
         <v>1</v>
       </c>
+      <c r="AV193" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -29284,6 +29865,9 @@
       <c r="AU194" t="n">
         <v>1</v>
       </c>
+      <c r="AV194" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -29435,6 +30019,9 @@
       <c r="AU195" t="n">
         <v>1</v>
       </c>
+      <c r="AV195" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -29568,6 +30155,9 @@
       <c r="AU196" t="n">
         <v>1</v>
       </c>
+      <c r="AV196" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -29719,6 +30309,9 @@
       <c r="AU197" t="n">
         <v>1</v>
       </c>
+      <c r="AV197" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -29870,6 +30463,9 @@
       <c r="AU198" t="n">
         <v>1</v>
       </c>
+      <c r="AV198" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -30003,6 +30599,9 @@
       <c r="AU199" t="n">
         <v>1</v>
       </c>
+      <c r="AV199" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -30154,6 +30753,9 @@
       <c r="AU200" t="n">
         <v>1</v>
       </c>
+      <c r="AV200" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -30305,6 +30907,9 @@
       <c r="AU201" t="n">
         <v>1</v>
       </c>
+      <c r="AV201" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -30438,6 +31043,9 @@
       <c r="AU202" t="n">
         <v>1</v>
       </c>
+      <c r="AV202" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -30589,6 +31197,9 @@
       <c r="AU203" t="n">
         <v>1</v>
       </c>
+      <c r="AV203" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -30740,6 +31351,9 @@
       <c r="AU204" t="n">
         <v>1</v>
       </c>
+      <c r="AV204" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -30873,6 +31487,9 @@
       <c r="AU205" t="n">
         <v>1</v>
       </c>
+      <c r="AV205" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -31024,6 +31641,9 @@
       <c r="AU206" t="n">
         <v>1</v>
       </c>
+      <c r="AV206" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -31175,6 +31795,9 @@
       <c r="AU207" t="n">
         <v>1</v>
       </c>
+      <c r="AV207" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -31308,6 +31931,9 @@
       <c r="AU208" t="n">
         <v>1</v>
       </c>
+      <c r="AV208" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -31459,6 +32085,9 @@
       <c r="AU209" t="n">
         <v>1</v>
       </c>
+      <c r="AV209" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -31610,6 +32239,9 @@
       <c r="AU210" t="n">
         <v>1</v>
       </c>
+      <c r="AV210" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -31743,6 +32375,9 @@
       <c r="AU211" t="n">
         <v>1</v>
       </c>
+      <c r="AV211" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -31894,6 +32529,9 @@
       <c r="AU212" t="n">
         <v>1</v>
       </c>
+      <c r="AV212" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -32045,6 +32683,9 @@
       <c r="AU213" t="n">
         <v>1</v>
       </c>
+      <c r="AV213" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -32178,6 +32819,9 @@
       <c r="AU214" t="n">
         <v>1</v>
       </c>
+      <c r="AV214" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -32329,6 +32973,9 @@
       <c r="AU215" t="n">
         <v>1</v>
       </c>
+      <c r="AV215" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -32480,6 +33127,9 @@
       <c r="AU216" t="n">
         <v>1</v>
       </c>
+      <c r="AV216" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -32613,6 +33263,9 @@
       <c r="AU217" t="n">
         <v>1</v>
       </c>
+      <c r="AV217" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -32764,6 +33417,9 @@
       <c r="AU218" t="n">
         <v>1</v>
       </c>
+      <c r="AV218" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -32915,6 +33571,9 @@
       <c r="AU219" t="n">
         <v>1</v>
       </c>
+      <c r="AV219" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -33048,6 +33707,9 @@
       <c r="AU220" t="n">
         <v>1</v>
       </c>
+      <c r="AV220" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -33222,6 +33884,9 @@
       </c>
       <c r="AU221" t="n">
         <v>0</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="222">
@@ -33374,6 +34039,9 @@
       <c r="AU222" t="n">
         <v>1</v>
       </c>
+      <c r="AV222" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -33507,6 +34175,9 @@
       <c r="AU223" t="n">
         <v>0.8481481481481505</v>
       </c>
+      <c r="AV223" t="n">
+        <v>2.97</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -33658,6 +34329,9 @@
       <c r="AU224" t="n">
         <v>1</v>
       </c>
+      <c r="AV224" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -33809,6 +34483,9 @@
       <c r="AU225" t="n">
         <v>1</v>
       </c>
+      <c r="AV225" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -33942,6 +34619,9 @@
       <c r="AU226" t="n">
         <v>1</v>
       </c>
+      <c r="AV226" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -34093,6 +34773,9 @@
       <c r="AU227" t="n">
         <v>1</v>
       </c>
+      <c r="AV227" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -34244,6 +34927,9 @@
       <c r="AU228" t="n">
         <v>1</v>
       </c>
+      <c r="AV228" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -34377,6 +35063,9 @@
       <c r="AU229" t="n">
         <v>1</v>
       </c>
+      <c r="AV229" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -34528,6 +35217,9 @@
       <c r="AU230" t="n">
         <v>1</v>
       </c>
+      <c r="AV230" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -34679,6 +35371,9 @@
       <c r="AU231" t="n">
         <v>1</v>
       </c>
+      <c r="AV231" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -34812,6 +35507,9 @@
       <c r="AU232" t="n">
         <v>1</v>
       </c>
+      <c r="AV232" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -34963,6 +35661,9 @@
       <c r="AU233" t="n">
         <v>1</v>
       </c>
+      <c r="AV233" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -35114,6 +35815,9 @@
       <c r="AU234" t="n">
         <v>1</v>
       </c>
+      <c r="AV234" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -35247,6 +35951,9 @@
       <c r="AU235" t="n">
         <v>1</v>
       </c>
+      <c r="AV235" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -35398,6 +36105,9 @@
       <c r="AU236" t="n">
         <v>1</v>
       </c>
+      <c r="AV236" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -35549,6 +36259,9 @@
       <c r="AU237" t="n">
         <v>1</v>
       </c>
+      <c r="AV237" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -35682,6 +36395,9 @@
       <c r="AU238" t="n">
         <v>1</v>
       </c>
+      <c r="AV238" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -35833,6 +36549,9 @@
       <c r="AU239" t="n">
         <v>1</v>
       </c>
+      <c r="AV239" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -35984,6 +36703,9 @@
       <c r="AU240" t="n">
         <v>1</v>
       </c>
+      <c r="AV240" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -36117,6 +36839,9 @@
       <c r="AU241" t="n">
         <v>1</v>
       </c>
+      <c r="AV241" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -36268,6 +36993,9 @@
       <c r="AU242" t="n">
         <v>1</v>
       </c>
+      <c r="AV242" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -36419,6 +37147,9 @@
       <c r="AU243" t="n">
         <v>1</v>
       </c>
+      <c r="AV243" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -36552,6 +37283,9 @@
       <c r="AU244" t="n">
         <v>1</v>
       </c>
+      <c r="AV244" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -36703,6 +37437,9 @@
       <c r="AU245" t="n">
         <v>1</v>
       </c>
+      <c r="AV245" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -36854,6 +37591,9 @@
       <c r="AU246" t="n">
         <v>1</v>
       </c>
+      <c r="AV246" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -36987,6 +37727,9 @@
       <c r="AU247" t="n">
         <v>1</v>
       </c>
+      <c r="AV247" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -37138,6 +37881,9 @@
       <c r="AU248" t="n">
         <v>1</v>
       </c>
+      <c r="AV248" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -37289,6 +38035,9 @@
       <c r="AU249" t="n">
         <v>1</v>
       </c>
+      <c r="AV249" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -37422,6 +38171,9 @@
       <c r="AU250" t="n">
         <v>1</v>
       </c>
+      <c r="AV250" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -37573,6 +38325,9 @@
       <c r="AU251" t="n">
         <v>1</v>
       </c>
+      <c r="AV251" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -37724,6 +38479,9 @@
       <c r="AU252" t="n">
         <v>1</v>
       </c>
+      <c r="AV252" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -37857,6 +38615,9 @@
       <c r="AU253" t="n">
         <v>1</v>
       </c>
+      <c r="AV253" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -38008,6 +38769,9 @@
       <c r="AU254" t="n">
         <v>1</v>
       </c>
+      <c r="AV254" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -38159,6 +38923,9 @@
       <c r="AU255" t="n">
         <v>1</v>
       </c>
+      <c r="AV255" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -38292,6 +39059,9 @@
       <c r="AU256" t="n">
         <v>1</v>
       </c>
+      <c r="AV256" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -38443,6 +39213,9 @@
       <c r="AU257" t="n">
         <v>1</v>
       </c>
+      <c r="AV257" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -38594,6 +39367,9 @@
       <c r="AU258" t="n">
         <v>1</v>
       </c>
+      <c r="AV258" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -38727,6 +39503,9 @@
       <c r="AU259" t="n">
         <v>1</v>
       </c>
+      <c r="AV259" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -38878,6 +39657,9 @@
       <c r="AU260" t="n">
         <v>1</v>
       </c>
+      <c r="AV260" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -39029,6 +39811,9 @@
       <c r="AU261" t="n">
         <v>1</v>
       </c>
+      <c r="AV261" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -39162,6 +39947,9 @@
       <c r="AU262" t="n">
         <v>1</v>
       </c>
+      <c r="AV262" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -39313,6 +40101,9 @@
       <c r="AU263" t="n">
         <v>1</v>
       </c>
+      <c r="AV263" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -39464,6 +40255,9 @@
       <c r="AU264" t="n">
         <v>1</v>
       </c>
+      <c r="AV264" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -39597,6 +40391,9 @@
       <c r="AU265" t="n">
         <v>1</v>
       </c>
+      <c r="AV265" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -39748,6 +40545,9 @@
       <c r="AU266" t="n">
         <v>1</v>
       </c>
+      <c r="AV266" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -39899,6 +40699,9 @@
       <c r="AU267" t="n">
         <v>1</v>
       </c>
+      <c r="AV267" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -40032,6 +40835,9 @@
       <c r="AU268" t="n">
         <v>1</v>
       </c>
+      <c r="AV268" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -40183,6 +40989,9 @@
       <c r="AU269" t="n">
         <v>1</v>
       </c>
+      <c r="AV269" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -40334,6 +41143,9 @@
       <c r="AU270" t="n">
         <v>1</v>
       </c>
+      <c r="AV270" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -40467,6 +41279,9 @@
       <c r="AU271" t="n">
         <v>1</v>
       </c>
+      <c r="AV271" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -40618,6 +41433,9 @@
       <c r="AU272" t="n">
         <v>1</v>
       </c>
+      <c r="AV272" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -40769,6 +41587,9 @@
       <c r="AU273" t="n">
         <v>1</v>
       </c>
+      <c r="AV273" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -40902,6 +41723,9 @@
       <c r="AU274" t="n">
         <v>1</v>
       </c>
+      <c r="AV274" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -41053,6 +41877,9 @@
       <c r="AU275" t="n">
         <v>1</v>
       </c>
+      <c r="AV275" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -41204,6 +42031,9 @@
       <c r="AU276" t="n">
         <v>1</v>
       </c>
+      <c r="AV276" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -41337,6 +42167,9 @@
       <c r="AU277" t="n">
         <v>1</v>
       </c>
+      <c r="AV277" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -41488,6 +42321,9 @@
       <c r="AU278" t="n">
         <v>1</v>
       </c>
+      <c r="AV278" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -41639,6 +42475,9 @@
       <c r="AU279" t="n">
         <v>1</v>
       </c>
+      <c r="AV279" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -41772,6 +42611,9 @@
       <c r="AU280" t="n">
         <v>1</v>
       </c>
+      <c r="AV280" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -41923,6 +42765,9 @@
       <c r="AU281" t="n">
         <v>1</v>
       </c>
+      <c r="AV281" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -42074,6 +42919,9 @@
       <c r="AU282" t="n">
         <v>1</v>
       </c>
+      <c r="AV282" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -42207,6 +43055,9 @@
       <c r="AU283" t="n">
         <v>1</v>
       </c>
+      <c r="AV283" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -42358,6 +43209,9 @@
       <c r="AU284" t="n">
         <v>1</v>
       </c>
+      <c r="AV284" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -42509,6 +43363,9 @@
       <c r="AU285" t="n">
         <v>1</v>
       </c>
+      <c r="AV285" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -42642,6 +43499,9 @@
       <c r="AU286" t="n">
         <v>1</v>
       </c>
+      <c r="AV286" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -42793,6 +43653,9 @@
       <c r="AU287" t="n">
         <v>1</v>
       </c>
+      <c r="AV287" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -42944,6 +43807,9 @@
       <c r="AU288" t="n">
         <v>1</v>
       </c>
+      <c r="AV288" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -43077,6 +43943,9 @@
       <c r="AU289" t="n">
         <v>1</v>
       </c>
+      <c r="AV289" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -43228,6 +44097,9 @@
       <c r="AU290" t="n">
         <v>1</v>
       </c>
+      <c r="AV290" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -43379,6 +44251,9 @@
       <c r="AU291" t="n">
         <v>1</v>
       </c>
+      <c r="AV291" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -43512,6 +44387,9 @@
       <c r="AU292" t="n">
         <v>1</v>
       </c>
+      <c r="AV292" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -43663,6 +44541,9 @@
       <c r="AU293" t="n">
         <v>1</v>
       </c>
+      <c r="AV293" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -43814,6 +44695,9 @@
       <c r="AU294" t="n">
         <v>1</v>
       </c>
+      <c r="AV294" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -43947,6 +44831,9 @@
       <c r="AU295" t="n">
         <v>1</v>
       </c>
+      <c r="AV295" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -44098,6 +44985,9 @@
       <c r="AU296" t="n">
         <v>1</v>
       </c>
+      <c r="AV296" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -44249,6 +45139,9 @@
       <c r="AU297" t="n">
         <v>1</v>
       </c>
+      <c r="AV297" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -44382,6 +45275,9 @@
       <c r="AU298" t="n">
         <v>1</v>
       </c>
+      <c r="AV298" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -44533,6 +45429,9 @@
       <c r="AU299" t="n">
         <v>1</v>
       </c>
+      <c r="AV299" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -44684,6 +45583,9 @@
       <c r="AU300" t="n">
         <v>1</v>
       </c>
+      <c r="AV300" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -44817,6 +45719,9 @@
       <c r="AU301" t="n">
         <v>1</v>
       </c>
+      <c r="AV301" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -44968,6 +45873,9 @@
       <c r="AU302" t="n">
         <v>1</v>
       </c>
+      <c r="AV302" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -45119,6 +46027,9 @@
       <c r="AU303" t="n">
         <v>1</v>
       </c>
+      <c r="AV303" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -45252,6 +46163,9 @@
       <c r="AU304" t="n">
         <v>1</v>
       </c>
+      <c r="AV304" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -45403,6 +46317,9 @@
       <c r="AU305" t="n">
         <v>1</v>
       </c>
+      <c r="AV305" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -45554,6 +46471,9 @@
       <c r="AU306" t="n">
         <v>1</v>
       </c>
+      <c r="AV306" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -45687,6 +46607,9 @@
       <c r="AU307" t="n">
         <v>1</v>
       </c>
+      <c r="AV307" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -45861,6 +46784,9 @@
       </c>
       <c r="AU308" t="n">
         <v>0</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="309">
@@ -46034,6 +46960,9 @@
       </c>
       <c r="AU309" t="n">
         <v>0</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="310">
@@ -46168,6 +47097,9 @@
       <c r="AU310" t="n">
         <v>0</v>
       </c>
+      <c r="AV310" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -46319,6 +47251,9 @@
       <c r="AU311" t="n">
         <v>1</v>
       </c>
+      <c r="AV311" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -46470,6 +47405,9 @@
       <c r="AU312" t="n">
         <v>1</v>
       </c>
+      <c r="AV312" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -46603,6 +47541,9 @@
       <c r="AU313" t="n">
         <v>1</v>
       </c>
+      <c r="AV313" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -46754,6 +47695,9 @@
       <c r="AU314" t="n">
         <v>1</v>
       </c>
+      <c r="AV314" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -46905,6 +47849,9 @@
       <c r="AU315" t="n">
         <v>1</v>
       </c>
+      <c r="AV315" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -47038,6 +47985,9 @@
       <c r="AU316" t="n">
         <v>1</v>
       </c>
+      <c r="AV316" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -47189,6 +48139,9 @@
       <c r="AU317" t="n">
         <v>1</v>
       </c>
+      <c r="AV317" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -47340,6 +48293,9 @@
       <c r="AU318" t="n">
         <v>1</v>
       </c>
+      <c r="AV318" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -47473,6 +48429,9 @@
       <c r="AU319" t="n">
         <v>1</v>
       </c>
+      <c r="AV319" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -47647,6 +48606,9 @@
       </c>
       <c r="AU320" t="n">
         <v>0</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="321">
@@ -47799,6 +48761,9 @@
       <c r="AU321" t="n">
         <v>1</v>
       </c>
+      <c r="AV321" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -47932,6 +48897,9 @@
       <c r="AU322" t="n">
         <v>0.7273256236815467</v>
       </c>
+      <c r="AV322" t="n">
+        <v>2.86</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -48083,6 +49051,9 @@
       <c r="AU323" t="n">
         <v>1</v>
       </c>
+      <c r="AV323" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -48234,6 +49205,9 @@
       <c r="AU324" t="n">
         <v>1</v>
       </c>
+      <c r="AV324" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -48367,6 +49341,9 @@
       <c r="AU325" t="n">
         <v>1</v>
       </c>
+      <c r="AV325" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -48518,6 +49495,9 @@
       <c r="AU326" t="n">
         <v>1</v>
       </c>
+      <c r="AV326" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -48669,6 +49649,9 @@
       <c r="AU327" t="n">
         <v>1</v>
       </c>
+      <c r="AV327" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -48802,6 +49785,9 @@
       <c r="AU328" t="n">
         <v>1</v>
       </c>
+      <c r="AV328" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -48953,6 +49939,9 @@
       <c r="AU329" t="n">
         <v>1</v>
       </c>
+      <c r="AV329" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -49104,6 +50093,9 @@
       <c r="AU330" t="n">
         <v>1</v>
       </c>
+      <c r="AV330" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -49237,6 +50229,9 @@
       <c r="AU331" t="n">
         <v>1</v>
       </c>
+      <c r="AV331" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -49411,6 +50406,9 @@
       </c>
       <c r="AU332" t="n">
         <v>0</v>
+      </c>
+      <c r="AV332" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="333">
@@ -49563,6 +50561,9 @@
       <c r="AU333" t="n">
         <v>1</v>
       </c>
+      <c r="AV333" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -49696,6 +50697,9 @@
       <c r="AU334" t="n">
         <v>0.7994350278115649</v>
       </c>
+      <c r="AV334" t="n">
+        <v>2.84</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -49847,6 +50851,9 @@
       <c r="AU335" t="n">
         <v>1</v>
       </c>
+      <c r="AV335" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -49998,6 +51005,9 @@
       <c r="AU336" t="n">
         <v>1</v>
       </c>
+      <c r="AV336" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -50131,6 +51141,9 @@
       <c r="AU337" t="n">
         <v>1</v>
       </c>
+      <c r="AV337" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -50305,6 +51318,9 @@
       </c>
       <c r="AU338" t="n">
         <v>0</v>
+      </c>
+      <c r="AV338" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="339">
@@ -50457,6 +51473,9 @@
       <c r="AU339" t="n">
         <v>1</v>
       </c>
+      <c r="AV339" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -50590,6 +51609,9 @@
       <c r="AU340" t="n">
         <v>0.7994350282482682</v>
       </c>
+      <c r="AV340" t="n">
+        <v>3.23</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -50764,6 +51786,9 @@
       </c>
       <c r="AU341" t="n">
         <v>0</v>
+      </c>
+      <c r="AV341" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="342">
@@ -50916,6 +51941,9 @@
       <c r="AU342" t="n">
         <v>1</v>
       </c>
+      <c r="AV342" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -51049,6 +52077,9 @@
       <c r="AU343" t="n">
         <v>0.7994350282482682</v>
       </c>
+      <c r="AV343" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -51200,6 +52231,9 @@
       <c r="AU344" t="n">
         <v>1</v>
       </c>
+      <c r="AV344" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -51351,6 +52385,9 @@
       <c r="AU345" t="n">
         <v>1</v>
       </c>
+      <c r="AV345" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -51484,6 +52521,9 @@
       <c r="AU346" t="n">
         <v>1</v>
       </c>
+      <c r="AV346" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -51635,6 +52675,9 @@
       <c r="AU347" t="n">
         <v>1</v>
       </c>
+      <c r="AV347" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -51786,6 +52829,9 @@
       <c r="AU348" t="n">
         <v>1</v>
       </c>
+      <c r="AV348" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -51919,6 +52965,9 @@
       <c r="AU349" t="n">
         <v>1</v>
       </c>
+      <c r="AV349" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -52070,6 +53119,9 @@
       <c r="AU350" t="n">
         <v>1</v>
       </c>
+      <c r="AV350" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -52221,6 +53273,9 @@
       <c r="AU351" t="n">
         <v>1</v>
       </c>
+      <c r="AV351" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -52354,6 +53409,9 @@
       <c r="AU352" t="n">
         <v>1</v>
       </c>
+      <c r="AV352" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -52505,6 +53563,9 @@
       <c r="AU353" t="n">
         <v>1</v>
       </c>
+      <c r="AV353" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -52656,6 +53717,9 @@
       <c r="AU354" t="n">
         <v>1</v>
       </c>
+      <c r="AV354" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -52789,6 +53853,9 @@
       <c r="AU355" t="n">
         <v>1</v>
       </c>
+      <c r="AV355" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -52940,6 +54007,9 @@
       <c r="AU356" t="n">
         <v>1</v>
       </c>
+      <c r="AV356" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -53091,6 +54161,9 @@
       <c r="AU357" t="n">
         <v>1</v>
       </c>
+      <c r="AV357" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -53224,6 +54297,9 @@
       <c r="AU358" t="n">
         <v>1</v>
       </c>
+      <c r="AV358" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -53375,6 +54451,9 @@
       <c r="AU359" t="n">
         <v>1</v>
       </c>
+      <c r="AV359" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -53526,6 +54605,9 @@
       <c r="AU360" t="n">
         <v>1</v>
       </c>
+      <c r="AV360" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -53659,6 +54741,9 @@
       <c r="AU361" t="n">
         <v>1</v>
       </c>
+      <c r="AV361" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -53810,6 +54895,9 @@
       <c r="AU362" t="n">
         <v>1</v>
       </c>
+      <c r="AV362" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -53961,6 +55049,9 @@
       <c r="AU363" t="n">
         <v>1</v>
       </c>
+      <c r="AV363" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -54094,6 +55185,9 @@
       <c r="AU364" t="n">
         <v>1</v>
       </c>
+      <c r="AV364" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -54245,6 +55339,9 @@
       <c r="AU365" t="n">
         <v>1</v>
       </c>
+      <c r="AV365" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -54396,6 +55493,9 @@
       <c r="AU366" t="n">
         <v>1</v>
       </c>
+      <c r="AV366" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -54529,6 +55629,9 @@
       <c r="AU367" t="n">
         <v>1</v>
       </c>
+      <c r="AV367" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -54680,6 +55783,9 @@
       <c r="AU368" t="n">
         <v>1</v>
       </c>
+      <c r="AV368" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -54831,6 +55937,9 @@
       <c r="AU369" t="n">
         <v>1</v>
       </c>
+      <c r="AV369" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -54964,6 +56073,9 @@
       <c r="AU370" t="n">
         <v>1</v>
       </c>
+      <c r="AV370" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -55115,6 +56227,9 @@
       <c r="AU371" t="n">
         <v>1</v>
       </c>
+      <c r="AV371" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -55266,6 +56381,9 @@
       <c r="AU372" t="n">
         <v>1</v>
       </c>
+      <c r="AV372" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -55399,6 +56517,9 @@
       <c r="AU373" t="n">
         <v>1</v>
       </c>
+      <c r="AV373" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -55550,6 +56671,9 @@
       <c r="AU374" t="n">
         <v>1</v>
       </c>
+      <c r="AV374" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -55701,6 +56825,9 @@
       <c r="AU375" t="n">
         <v>1</v>
       </c>
+      <c r="AV375" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -55834,6 +56961,9 @@
       <c r="AU376" t="n">
         <v>1</v>
       </c>
+      <c r="AV376" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -55985,6 +57115,9 @@
       <c r="AU377" t="n">
         <v>1</v>
       </c>
+      <c r="AV377" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -56136,6 +57269,9 @@
       <c r="AU378" t="n">
         <v>1</v>
       </c>
+      <c r="AV378" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -56269,6 +57405,9 @@
       <c r="AU379" t="n">
         <v>1</v>
       </c>
+      <c r="AV379" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -56420,6 +57559,9 @@
       <c r="AU380" t="n">
         <v>1</v>
       </c>
+      <c r="AV380" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -56571,6 +57713,9 @@
       <c r="AU381" t="n">
         <v>1</v>
       </c>
+      <c r="AV381" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -56704,6 +57849,9 @@
       <c r="AU382" t="n">
         <v>1</v>
       </c>
+      <c r="AV382" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -56855,6 +58003,9 @@
       <c r="AU383" t="n">
         <v>1</v>
       </c>
+      <c r="AV383" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -57006,6 +58157,9 @@
       <c r="AU384" t="n">
         <v>1</v>
       </c>
+      <c r="AV384" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -57139,6 +58293,9 @@
       <c r="AU385" t="n">
         <v>1</v>
       </c>
+      <c r="AV385" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -57290,6 +58447,9 @@
       <c r="AU386" t="n">
         <v>1</v>
       </c>
+      <c r="AV386" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -57441,6 +58601,9 @@
       <c r="AU387" t="n">
         <v>1</v>
       </c>
+      <c r="AV387" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -57574,6 +58737,9 @@
       <c r="AU388" t="n">
         <v>1</v>
       </c>
+      <c r="AV388" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -57725,6 +58891,9 @@
       <c r="AU389" t="n">
         <v>1</v>
       </c>
+      <c r="AV389" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -57876,6 +59045,9 @@
       <c r="AU390" t="n">
         <v>1</v>
       </c>
+      <c r="AV390" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -58009,6 +59181,9 @@
       <c r="AU391" t="n">
         <v>1</v>
       </c>
+      <c r="AV391" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -58160,6 +59335,9 @@
       <c r="AU392" t="n">
         <v>1</v>
       </c>
+      <c r="AV392" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -58311,6 +59489,9 @@
       <c r="AU393" t="n">
         <v>1</v>
       </c>
+      <c r="AV393" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -58444,6 +59625,9 @@
       <c r="AU394" t="n">
         <v>1</v>
       </c>
+      <c r="AV394" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -58595,6 +59779,9 @@
       <c r="AU395" t="n">
         <v>1</v>
       </c>
+      <c r="AV395" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -58746,6 +59933,9 @@
       <c r="AU396" t="n">
         <v>1</v>
       </c>
+      <c r="AV396" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -58879,6 +60069,9 @@
       <c r="AU397" t="n">
         <v>1</v>
       </c>
+      <c r="AV397" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -59030,6 +60223,9 @@
       <c r="AU398" t="n">
         <v>1</v>
       </c>
+      <c r="AV398" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -59181,6 +60377,9 @@
       <c r="AU399" t="n">
         <v>1</v>
       </c>
+      <c r="AV399" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -59314,6 +60513,9 @@
       <c r="AU400" t="n">
         <v>1</v>
       </c>
+      <c r="AV400" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -59465,6 +60667,9 @@
       <c r="AU401" t="n">
         <v>1</v>
       </c>
+      <c r="AV401" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -59616,6 +60821,9 @@
       <c r="AU402" t="n">
         <v>1</v>
       </c>
+      <c r="AV402" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -59749,6 +60957,9 @@
       <c r="AU403" t="n">
         <v>1</v>
       </c>
+      <c r="AV403" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -59900,6 +61111,9 @@
       <c r="AU404" t="n">
         <v>1</v>
       </c>
+      <c r="AV404" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -60051,6 +61265,9 @@
       <c r="AU405" t="n">
         <v>1</v>
       </c>
+      <c r="AV405" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -60184,6 +61401,9 @@
       <c r="AU406" t="n">
         <v>1</v>
       </c>
+      <c r="AV406" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -60335,6 +61555,9 @@
       <c r="AU407" t="n">
         <v>1</v>
       </c>
+      <c r="AV407" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -60486,6 +61709,9 @@
       <c r="AU408" t="n">
         <v>1</v>
       </c>
+      <c r="AV408" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -60619,6 +61845,9 @@
       <c r="AU409" t="n">
         <v>1</v>
       </c>
+      <c r="AV409" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -60770,6 +61999,9 @@
       <c r="AU410" t="n">
         <v>1</v>
       </c>
+      <c r="AV410" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -60921,6 +62153,9 @@
       <c r="AU411" t="n">
         <v>1</v>
       </c>
+      <c r="AV411" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -61054,6 +62289,9 @@
       <c r="AU412" t="n">
         <v>1</v>
       </c>
+      <c r="AV412" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -61205,6 +62443,9 @@
       <c r="AU413" t="n">
         <v>1</v>
       </c>
+      <c r="AV413" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -61356,6 +62597,9 @@
       <c r="AU414" t="n">
         <v>1</v>
       </c>
+      <c r="AV414" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -61489,6 +62733,9 @@
       <c r="AU415" t="n">
         <v>1</v>
       </c>
+      <c r="AV415" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -61640,6 +62887,9 @@
       <c r="AU416" t="n">
         <v>1</v>
       </c>
+      <c r="AV416" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -61791,6 +63041,9 @@
       <c r="AU417" t="n">
         <v>1</v>
       </c>
+      <c r="AV417" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -61924,6 +63177,9 @@
       <c r="AU418" t="n">
         <v>1</v>
       </c>
+      <c r="AV418" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -62075,6 +63331,9 @@
       <c r="AU419" t="n">
         <v>1</v>
       </c>
+      <c r="AV419" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -62226,6 +63485,9 @@
       <c r="AU420" t="n">
         <v>1</v>
       </c>
+      <c r="AV420" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -62359,6 +63621,9 @@
       <c r="AU421" t="n">
         <v>1</v>
       </c>
+      <c r="AV421" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -62510,6 +63775,9 @@
       <c r="AU422" t="n">
         <v>1</v>
       </c>
+      <c r="AV422" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -62661,6 +63929,9 @@
       <c r="AU423" t="n">
         <v>1</v>
       </c>
+      <c r="AV423" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -62794,6 +64065,9 @@
       <c r="AU424" t="n">
         <v>1</v>
       </c>
+      <c r="AV424" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -62945,6 +64219,9 @@
       <c r="AU425" t="n">
         <v>1</v>
       </c>
+      <c r="AV425" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -63096,6 +64373,9 @@
       <c r="AU426" t="n">
         <v>1</v>
       </c>
+      <c r="AV426" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -63229,6 +64509,9 @@
       <c r="AU427" t="n">
         <v>1</v>
       </c>
+      <c r="AV427" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -63380,6 +64663,9 @@
       <c r="AU428" t="n">
         <v>1</v>
       </c>
+      <c r="AV428" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -63531,6 +64817,9 @@
       <c r="AU429" t="n">
         <v>1</v>
       </c>
+      <c r="AV429" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -63664,6 +64953,9 @@
       <c r="AU430" t="n">
         <v>1</v>
       </c>
+      <c r="AV430" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -63815,6 +65107,9 @@
       <c r="AU431" t="n">
         <v>1</v>
       </c>
+      <c r="AV431" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -63966,6 +65261,9 @@
       <c r="AU432" t="n">
         <v>1</v>
       </c>
+      <c r="AV432" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -64099,6 +65397,9 @@
       <c r="AU433" t="n">
         <v>1</v>
       </c>
+      <c r="AV433" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -64250,6 +65551,9 @@
       <c r="AU434" t="n">
         <v>1</v>
       </c>
+      <c r="AV434" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -64401,6 +65705,9 @@
       <c r="AU435" t="n">
         <v>1</v>
       </c>
+      <c r="AV435" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -64534,6 +65841,9 @@
       <c r="AU436" t="n">
         <v>1</v>
       </c>
+      <c r="AV436" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -64685,6 +65995,9 @@
       <c r="AU437" t="n">
         <v>1</v>
       </c>
+      <c r="AV437" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -64836,6 +66149,9 @@
       <c r="AU438" t="n">
         <v>1</v>
       </c>
+      <c r="AV438" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -64969,6 +66285,9 @@
       <c r="AU439" t="n">
         <v>1</v>
       </c>
+      <c r="AV439" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -65120,6 +66439,9 @@
       <c r="AU440" t="n">
         <v>1</v>
       </c>
+      <c r="AV440" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -65271,6 +66593,9 @@
       <c r="AU441" t="n">
         <v>1</v>
       </c>
+      <c r="AV441" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -65404,6 +66729,9 @@
       <c r="AU442" t="n">
         <v>1</v>
       </c>
+      <c r="AV442" t="n">
+        <v>3.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/clean/output_data_example.xlsx
+++ b/data/clean/output_data_example.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV442"/>
+  <dimension ref="A1:AU442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,11 +669,6 @@
           <t>temperature_results</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>revised_temperature_score</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -848,9 +843,6 @@
       </c>
       <c r="AU2" t="n">
         <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1.66</v>
       </c>
     </row>
     <row r="3">
@@ -1003,9 +995,6 @@
       <c r="AU3" t="n">
         <v>1</v>
       </c>
-      <c r="AV3" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1139,9 +1128,6 @@
       <c r="AU4" t="n">
         <v>0.7273256236817223</v>
       </c>
-      <c r="AV4" t="n">
-        <v>2.78</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1316,9 +1302,6 @@
       </c>
       <c r="AU5" t="n">
         <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>2.03</v>
       </c>
     </row>
     <row r="6">
@@ -1471,9 +1454,6 @@
       <c r="AU6" t="n">
         <v>1</v>
       </c>
-      <c r="AV6" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1607,9 +1587,6 @@
       <c r="AU7" t="n">
         <v>0.7273256236817223</v>
       </c>
-      <c r="AV7" t="n">
-        <v>2.88</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1761,9 +1738,6 @@
       <c r="AU8" t="n">
         <v>1</v>
       </c>
-      <c r="AV8" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1915,9 +1889,6 @@
       <c r="AU9" t="n">
         <v>1</v>
       </c>
-      <c r="AV9" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2051,9 +2022,6 @@
       <c r="AU10" t="n">
         <v>1</v>
       </c>
-      <c r="AV10" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2205,9 +2173,6 @@
       <c r="AU11" t="n">
         <v>1</v>
       </c>
-      <c r="AV11" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2359,9 +2324,6 @@
       <c r="AU12" t="n">
         <v>1</v>
       </c>
-      <c r="AV12" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2495,9 +2457,6 @@
       <c r="AU13" t="n">
         <v>1</v>
       </c>
-      <c r="AV13" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2675,9 +2634,6 @@
       <c r="AU14" t="n">
         <v>0</v>
       </c>
-      <c r="AV14" t="n">
-        <v>3.31</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2854,9 +2810,6 @@
       </c>
       <c r="AU15" t="n">
         <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>3.31</v>
       </c>
     </row>
     <row r="16">
@@ -2991,9 +2944,6 @@
       <c r="AU16" t="n">
         <v>0</v>
       </c>
-      <c r="AV16" t="n">
-        <v>3.31</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3145,9 +3095,6 @@
       <c r="AU17" t="n">
         <v>1</v>
       </c>
-      <c r="AV17" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3299,9 +3246,6 @@
       <c r="AU18" t="n">
         <v>1</v>
       </c>
-      <c r="AV18" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3435,9 +3379,6 @@
       <c r="AU19" t="n">
         <v>1</v>
       </c>
-      <c r="AV19" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3589,9 +3530,6 @@
       <c r="AU20" t="n">
         <v>1</v>
       </c>
-      <c r="AV20" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3743,9 +3681,6 @@
       <c r="AU21" t="n">
         <v>1</v>
       </c>
-      <c r="AV21" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3879,9 +3814,6 @@
       <c r="AU22" t="n">
         <v>1</v>
       </c>
-      <c r="AV22" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4033,9 +3965,6 @@
       <c r="AU23" t="n">
         <v>1</v>
       </c>
-      <c r="AV23" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4187,9 +4116,6 @@
       <c r="AU24" t="n">
         <v>1</v>
       </c>
-      <c r="AV24" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4323,9 +4249,6 @@
       <c r="AU25" t="n">
         <v>1</v>
       </c>
-      <c r="AV25" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4477,9 +4400,6 @@
       <c r="AU26" t="n">
         <v>1</v>
       </c>
-      <c r="AV26" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4652,9 +4572,6 @@
       </c>
       <c r="AU27" t="n">
         <v>0</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>4.62</v>
       </c>
     </row>
     <row r="28">
@@ -4789,9 +4706,6 @@
       <c r="AU28" t="n">
         <v>0.1518518518518731</v>
       </c>
-      <c r="AV28" t="n">
-        <v>4.4</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4943,9 +4857,6 @@
       <c r="AU29" t="n">
         <v>1</v>
       </c>
-      <c r="AV29" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -5097,9 +5008,6 @@
       <c r="AU30" t="n">
         <v>1</v>
       </c>
-      <c r="AV30" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5233,9 +5141,6 @@
       <c r="AU31" t="n">
         <v>1</v>
       </c>
-      <c r="AV31" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5413,9 +5318,6 @@
       <c r="AU32" t="n">
         <v>0</v>
       </c>
-      <c r="AV32" t="n">
-        <v>1.25</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5592,9 +5494,6 @@
       </c>
       <c r="AU33" t="n">
         <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>2.68</v>
       </c>
     </row>
     <row r="34">
@@ -5729,9 +5628,6 @@
       <c r="AU34" t="n">
         <v>0</v>
       </c>
-      <c r="AV34" t="n">
-        <v>2.29</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5883,9 +5779,6 @@
       <c r="AU35" t="n">
         <v>1</v>
       </c>
-      <c r="AV35" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -6037,9 +5930,6 @@
       <c r="AU36" t="n">
         <v>1</v>
       </c>
-      <c r="AV36" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6173,9 +6063,6 @@
       <c r="AU37" t="n">
         <v>1</v>
       </c>
-      <c r="AV37" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6353,9 +6240,6 @@
       <c r="AU38" t="n">
         <v>0</v>
       </c>
-      <c r="AV38" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6532,9 +6416,6 @@
       </c>
       <c r="AU39" t="n">
         <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -6669,9 +6550,6 @@
       <c r="AU40" t="n">
         <v>0</v>
       </c>
-      <c r="AV40" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6823,9 +6701,6 @@
       <c r="AU41" t="n">
         <v>1</v>
       </c>
-      <c r="AV41" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6977,9 +6852,6 @@
       <c r="AU42" t="n">
         <v>1</v>
       </c>
-      <c r="AV42" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -7113,9 +6985,6 @@
       <c r="AU43" t="n">
         <v>1</v>
       </c>
-      <c r="AV43" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7267,9 +7136,6 @@
       <c r="AU44" t="n">
         <v>1</v>
       </c>
-      <c r="AV44" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7421,9 +7287,6 @@
       <c r="AU45" t="n">
         <v>1</v>
       </c>
-      <c r="AV45" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7557,9 +7420,6 @@
       <c r="AU46" t="n">
         <v>1</v>
       </c>
-      <c r="AV46" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7734,9 +7594,6 @@
       </c>
       <c r="AU47" t="n">
         <v>0</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>1.46</v>
       </c>
     </row>
     <row r="48">
@@ -7889,9 +7746,6 @@
       <c r="AU48" t="n">
         <v>1</v>
       </c>
-      <c r="AV48" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8025,9 +7879,6 @@
       <c r="AU49" t="n">
         <v>0.7012987012987671</v>
       </c>
-      <c r="AV49" t="n">
-        <v>2.68</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -8179,9 +8030,6 @@
       <c r="AU50" t="n">
         <v>1</v>
       </c>
-      <c r="AV50" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8333,9 +8181,6 @@
       <c r="AU51" t="n">
         <v>1</v>
       </c>
-      <c r="AV51" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8469,9 +8314,6 @@
       <c r="AU52" t="n">
         <v>1</v>
       </c>
-      <c r="AV52" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8623,9 +8465,6 @@
       <c r="AU53" t="n">
         <v>1</v>
       </c>
-      <c r="AV53" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8777,9 +8616,6 @@
       <c r="AU54" t="n">
         <v>1</v>
       </c>
-      <c r="AV54" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8913,9 +8749,6 @@
       <c r="AU55" t="n">
         <v>1</v>
       </c>
-      <c r="AV55" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9092,9 +8925,6 @@
       </c>
       <c r="AU56" t="n">
         <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>3.16</v>
       </c>
     </row>
     <row r="57">
@@ -9247,9 +9077,6 @@
       <c r="AU57" t="n">
         <v>1</v>
       </c>
-      <c r="AV57" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9383,9 +9210,6 @@
       <c r="AU58" t="n">
         <v>0.7273256236817111</v>
       </c>
-      <c r="AV58" t="n">
-        <v>3.19</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9537,9 +9361,6 @@
       <c r="AU59" t="n">
         <v>1</v>
       </c>
-      <c r="AV59" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9712,9 +9533,6 @@
       </c>
       <c r="AU60" t="n">
         <v>0</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>2.26</v>
       </c>
     </row>
     <row r="61">
@@ -9849,9 +9667,6 @@
       <c r="AU61" t="n">
         <v>0.2726743763182889</v>
       </c>
-      <c r="AV61" t="n">
-        <v>2.52</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -10003,9 +9818,6 @@
       <c r="AU62" t="n">
         <v>1</v>
       </c>
-      <c r="AV62" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -10157,9 +9969,6 @@
       <c r="AU63" t="n">
         <v>1</v>
       </c>
-      <c r="AV63" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -10293,9 +10102,6 @@
       <c r="AU64" t="n">
         <v>1</v>
       </c>
-      <c r="AV64" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10447,9 +10253,6 @@
       <c r="AU65" t="n">
         <v>1</v>
       </c>
-      <c r="AV65" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10601,9 +10404,6 @@
       <c r="AU66" t="n">
         <v>1</v>
       </c>
-      <c r="AV66" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10737,9 +10537,6 @@
       <c r="AU67" t="n">
         <v>1</v>
       </c>
-      <c r="AV67" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10891,9 +10688,6 @@
       <c r="AU68" t="n">
         <v>1</v>
       </c>
-      <c r="AV68" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -11045,9 +10839,6 @@
       <c r="AU69" t="n">
         <v>1</v>
       </c>
-      <c r="AV69" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -11181,9 +10972,6 @@
       <c r="AU70" t="n">
         <v>1</v>
       </c>
-      <c r="AV70" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11335,9 +11123,6 @@
       <c r="AU71" t="n">
         <v>1</v>
       </c>
-      <c r="AV71" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11489,9 +11274,6 @@
       <c r="AU72" t="n">
         <v>1</v>
       </c>
-      <c r="AV72" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11625,9 +11407,6 @@
       <c r="AU73" t="n">
         <v>1</v>
       </c>
-      <c r="AV73" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11779,9 +11558,6 @@
       <c r="AU74" t="n">
         <v>1</v>
       </c>
-      <c r="AV74" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11933,9 +11709,6 @@
       <c r="AU75" t="n">
         <v>1</v>
       </c>
-      <c r="AV75" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -12069,9 +11842,6 @@
       <c r="AU76" t="n">
         <v>1</v>
       </c>
-      <c r="AV76" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -12246,9 +12016,6 @@
       </c>
       <c r="AU77" t="n">
         <v>0</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>3.83</v>
       </c>
     </row>
     <row r="78">
@@ -12401,9 +12168,6 @@
       <c r="AU78" t="n">
         <v>1</v>
       </c>
-      <c r="AV78" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12537,9 +12301,6 @@
       <c r="AU79" t="n">
         <v>0.7203579418344516</v>
       </c>
-      <c r="AV79" t="n">
-        <v>3.38</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -12691,9 +12452,6 @@
       <c r="AU80" t="n">
         <v>1</v>
       </c>
-      <c r="AV80" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -12845,9 +12603,6 @@
       <c r="AU81" t="n">
         <v>1</v>
       </c>
-      <c r="AV81" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12981,9 +12736,6 @@
       <c r="AU82" t="n">
         <v>1</v>
       </c>
-      <c r="AV82" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -13135,9 +12887,6 @@
       <c r="AU83" t="n">
         <v>1</v>
       </c>
-      <c r="AV83" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -13289,9 +13038,6 @@
       <c r="AU84" t="n">
         <v>1</v>
       </c>
-      <c r="AV84" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13425,9 +13171,6 @@
       <c r="AU85" t="n">
         <v>1</v>
       </c>
-      <c r="AV85" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -13579,9 +13322,6 @@
       <c r="AU86" t="n">
         <v>1</v>
       </c>
-      <c r="AV86" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -13733,9 +13473,6 @@
       <c r="AU87" t="n">
         <v>1</v>
       </c>
-      <c r="AV87" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13869,9 +13606,6 @@
       <c r="AU88" t="n">
         <v>1</v>
       </c>
-      <c r="AV88" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -14023,9 +13757,6 @@
       <c r="AU89" t="n">
         <v>1</v>
       </c>
-      <c r="AV89" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -14177,9 +13908,6 @@
       <c r="AU90" t="n">
         <v>1</v>
       </c>
-      <c r="AV90" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -14313,9 +14041,6 @@
       <c r="AU91" t="n">
         <v>1</v>
       </c>
-      <c r="AV91" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -14467,9 +14192,6 @@
       <c r="AU92" t="n">
         <v>1</v>
       </c>
-      <c r="AV92" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -14621,9 +14343,6 @@
       <c r="AU93" t="n">
         <v>1</v>
       </c>
-      <c r="AV93" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -14757,9 +14476,6 @@
       <c r="AU94" t="n">
         <v>1</v>
       </c>
-      <c r="AV94" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -14934,9 +14650,6 @@
       </c>
       <c r="AU95" t="n">
         <v>0</v>
-      </c>
-      <c r="AV95" t="n">
-        <v>0.29</v>
       </c>
     </row>
     <row r="96">
@@ -15110,9 +14823,6 @@
       </c>
       <c r="AU96" t="n">
         <v>0</v>
-      </c>
-      <c r="AV96" t="n">
-        <v>3.52</v>
       </c>
     </row>
     <row r="97">
@@ -15247,9 +14957,6 @@
       <c r="AU97" t="n">
         <v>0</v>
       </c>
-      <c r="AV97" t="n">
-        <v>2.15</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -15401,9 +15108,6 @@
       <c r="AU98" t="n">
         <v>1</v>
       </c>
-      <c r="AV98" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15555,9 +15259,6 @@
       <c r="AU99" t="n">
         <v>1</v>
       </c>
-      <c r="AV99" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -15691,9 +15392,6 @@
       <c r="AU100" t="n">
         <v>1</v>
       </c>
-      <c r="AV100" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -15868,9 +15566,6 @@
       </c>
       <c r="AU101" t="n">
         <v>0</v>
-      </c>
-      <c r="AV101" t="n">
-        <v>0.79</v>
       </c>
     </row>
     <row r="102">
@@ -16023,9 +15718,6 @@
       <c r="AU102" t="n">
         <v>1</v>
       </c>
-      <c r="AV102" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -16159,9 +15851,6 @@
       <c r="AU103" t="n">
         <v>0.7203579418344515</v>
       </c>
-      <c r="AV103" t="n">
-        <v>2.53</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16336,9 +16025,6 @@
       </c>
       <c r="AU104" t="n">
         <v>0</v>
-      </c>
-      <c r="AV104" t="n">
-        <v>0.44</v>
       </c>
     </row>
     <row r="105">
@@ -16491,9 +16177,6 @@
       <c r="AU105" t="n">
         <v>1</v>
       </c>
-      <c r="AV105" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16627,9 +16310,6 @@
       <c r="AU106" t="n">
         <v>0.7203579418344515</v>
       </c>
-      <c r="AV106" t="n">
-        <v>2.43</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -16781,9 +16461,6 @@
       <c r="AU107" t="n">
         <v>1</v>
       </c>
-      <c r="AV107" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16935,9 +16612,6 @@
       <c r="AU108" t="n">
         <v>1</v>
       </c>
-      <c r="AV108" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -17071,9 +16745,6 @@
       <c r="AU109" t="n">
         <v>1</v>
       </c>
-      <c r="AV109" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -17225,9 +16896,6 @@
       <c r="AU110" t="n">
         <v>1</v>
       </c>
-      <c r="AV110" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -17379,9 +17047,6 @@
       <c r="AU111" t="n">
         <v>1</v>
       </c>
-      <c r="AV111" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -17515,9 +17180,6 @@
       <c r="AU112" t="n">
         <v>1</v>
       </c>
-      <c r="AV112" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -17669,9 +17331,6 @@
       <c r="AU113" t="n">
         <v>1</v>
       </c>
-      <c r="AV113" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -17823,9 +17482,6 @@
       <c r="AU114" t="n">
         <v>1</v>
       </c>
-      <c r="AV114" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -17959,9 +17615,6 @@
       <c r="AU115" t="n">
         <v>1</v>
       </c>
-      <c r="AV115" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -18113,9 +17766,6 @@
       <c r="AU116" t="n">
         <v>1</v>
       </c>
-      <c r="AV116" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -18267,9 +17917,6 @@
       <c r="AU117" t="n">
         <v>1</v>
       </c>
-      <c r="AV117" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -18403,9 +18050,6 @@
       <c r="AU118" t="n">
         <v>1</v>
       </c>
-      <c r="AV118" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -18580,9 +18224,6 @@
       </c>
       <c r="AU119" t="n">
         <v>0</v>
-      </c>
-      <c r="AV119" t="n">
-        <v>0.61</v>
       </c>
     </row>
     <row r="120">
@@ -18735,9 +18376,6 @@
       <c r="AU120" t="n">
         <v>1</v>
       </c>
-      <c r="AV120" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -18871,9 +18509,6 @@
       <c r="AU121" t="n">
         <v>0.7203579418344523</v>
       </c>
-      <c r="AV121" t="n">
-        <v>2.47</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -19048,9 +18683,6 @@
       </c>
       <c r="AU122" t="n">
         <v>0</v>
-      </c>
-      <c r="AV122" t="n">
-        <v>2.17</v>
       </c>
     </row>
     <row r="123">
@@ -19203,9 +18835,6 @@
       <c r="AU123" t="n">
         <v>1</v>
       </c>
-      <c r="AV123" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -19339,9 +18968,6 @@
       <c r="AU124" t="n">
         <v>0.7203579418344523</v>
       </c>
-      <c r="AV124" t="n">
-        <v>2.91</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -19493,9 +19119,6 @@
       <c r="AU125" t="n">
         <v>1</v>
       </c>
-      <c r="AV125" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -19647,9 +19270,6 @@
       <c r="AU126" t="n">
         <v>1</v>
       </c>
-      <c r="AV126" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -19783,9 +19403,6 @@
       <c r="AU127" t="n">
         <v>1</v>
       </c>
-      <c r="AV127" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -19937,9 +19554,6 @@
       <c r="AU128" t="n">
         <v>1</v>
       </c>
-      <c r="AV128" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -20091,9 +19705,6 @@
       <c r="AU129" t="n">
         <v>1</v>
       </c>
-      <c r="AV129" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -20227,9 +19838,6 @@
       <c r="AU130" t="n">
         <v>1</v>
       </c>
-      <c r="AV130" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -20404,9 +20012,6 @@
       </c>
       <c r="AU131" t="n">
         <v>0</v>
-      </c>
-      <c r="AV131" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -20559,9 +20164,6 @@
       <c r="AU132" t="n">
         <v>1</v>
       </c>
-      <c r="AV132" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -20695,9 +20297,6 @@
       <c r="AU133" t="n">
         <v>0.7273256236816983</v>
       </c>
-      <c r="AV133" t="n">
-        <v>2.87</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -20849,9 +20448,6 @@
       <c r="AU134" t="n">
         <v>1</v>
       </c>
-      <c r="AV134" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -21003,9 +20599,6 @@
       <c r="AU135" t="n">
         <v>1</v>
       </c>
-      <c r="AV135" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -21139,9 +20732,6 @@
       <c r="AU136" t="n">
         <v>1</v>
       </c>
-      <c r="AV136" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -21293,9 +20883,6 @@
       <c r="AU137" t="n">
         <v>1</v>
       </c>
-      <c r="AV137" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -21447,9 +21034,6 @@
       <c r="AU138" t="n">
         <v>1</v>
       </c>
-      <c r="AV138" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -21583,9 +21167,6 @@
       <c r="AU139" t="n">
         <v>1</v>
       </c>
-      <c r="AV139" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -21737,9 +21318,6 @@
       <c r="AU140" t="n">
         <v>1</v>
       </c>
-      <c r="AV140" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -21891,9 +21469,6 @@
       <c r="AU141" t="n">
         <v>1</v>
       </c>
-      <c r="AV141" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -22027,9 +21602,6 @@
       <c r="AU142" t="n">
         <v>1</v>
       </c>
-      <c r="AV142" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -22204,9 +21776,6 @@
       </c>
       <c r="AU143" t="n">
         <v>0</v>
-      </c>
-      <c r="AV143" t="n">
-        <v>2.08</v>
       </c>
     </row>
     <row r="144">
@@ -22359,9 +21928,6 @@
       <c r="AU144" t="n">
         <v>1</v>
       </c>
-      <c r="AV144" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -22495,9 +22061,6 @@
       <c r="AU145" t="n">
         <v>0.5745205865764237</v>
       </c>
-      <c r="AV145" t="n">
-        <v>2.72</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -22649,9 +22212,6 @@
       <c r="AU146" t="n">
         <v>1</v>
       </c>
-      <c r="AV146" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -22803,9 +22363,6 @@
       <c r="AU147" t="n">
         <v>1</v>
       </c>
-      <c r="AV147" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -22939,9 +22496,6 @@
       <c r="AU148" t="n">
         <v>1</v>
       </c>
-      <c r="AV148" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -23093,9 +22647,6 @@
       <c r="AU149" t="n">
         <v>1</v>
       </c>
-      <c r="AV149" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -23268,9 +22819,6 @@
       </c>
       <c r="AU150" t="n">
         <v>0</v>
-      </c>
-      <c r="AV150" t="n">
-        <v>2.64</v>
       </c>
     </row>
     <row r="151">
@@ -23405,9 +22953,6 @@
       <c r="AU151" t="n">
         <v>0.2005649717505835</v>
       </c>
-      <c r="AV151" t="n">
-        <v>2.76</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -23559,9 +23104,6 @@
       <c r="AU152" t="n">
         <v>1</v>
       </c>
-      <c r="AV152" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -23713,9 +23255,6 @@
       <c r="AU153" t="n">
         <v>1</v>
       </c>
-      <c r="AV153" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -23849,9 +23388,6 @@
       <c r="AU154" t="n">
         <v>1</v>
       </c>
-      <c r="AV154" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -24003,9 +23539,6 @@
       <c r="AU155" t="n">
         <v>1</v>
       </c>
-      <c r="AV155" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -24157,9 +23690,6 @@
       <c r="AU156" t="n">
         <v>1</v>
       </c>
-      <c r="AV156" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -24293,9 +23823,6 @@
       <c r="AU157" t="n">
         <v>1</v>
       </c>
-      <c r="AV157" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -24447,9 +23974,6 @@
       <c r="AU158" t="n">
         <v>1</v>
       </c>
-      <c r="AV158" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -24622,9 +24146,6 @@
       </c>
       <c r="AU159" t="n">
         <v>0</v>
-      </c>
-      <c r="AV159" t="n">
-        <v>0.47</v>
       </c>
     </row>
     <row r="160">
@@ -24759,9 +24280,6 @@
       <c r="AU160" t="n">
         <v>0.4254794134235768</v>
       </c>
-      <c r="AV160" t="n">
-        <v>1.63</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -24913,9 +24431,6 @@
       <c r="AU161" t="n">
         <v>1</v>
       </c>
-      <c r="AV161" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -25067,9 +24582,6 @@
       <c r="AU162" t="n">
         <v>1</v>
       </c>
-      <c r="AV162" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -25203,9 +24715,6 @@
       <c r="AU163" t="n">
         <v>1</v>
       </c>
-      <c r="AV163" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -25380,9 +24889,6 @@
       </c>
       <c r="AU164" t="n">
         <v>0</v>
-      </c>
-      <c r="AV164" t="n">
-        <v>1.03</v>
       </c>
     </row>
     <row r="165">
@@ -25535,9 +25041,6 @@
       <c r="AU165" t="n">
         <v>1</v>
       </c>
-      <c r="AV165" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -25671,9 +25174,6 @@
       <c r="AU166" t="n">
         <v>0.5745205865755186</v>
       </c>
-      <c r="AV166" t="n">
-        <v>2.28</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -25825,9 +25325,6 @@
       <c r="AU167" t="n">
         <v>1</v>
       </c>
-      <c r="AV167" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -26000,9 +25497,6 @@
       </c>
       <c r="AU168" t="n">
         <v>0</v>
-      </c>
-      <c r="AV168" t="n">
-        <v>2.31</v>
       </c>
     </row>
     <row r="169">
@@ -26137,9 +25631,6 @@
       <c r="AU169" t="n">
         <v>0.4254794134244814</v>
       </c>
-      <c r="AV169" t="n">
-        <v>2.69</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -26291,9 +25782,6 @@
       <c r="AU170" t="n">
         <v>1</v>
       </c>
-      <c r="AV170" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -26445,9 +25933,6 @@
       <c r="AU171" t="n">
         <v>1</v>
       </c>
-      <c r="AV171" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -26581,9 +26066,6 @@
       <c r="AU172" t="n">
         <v>1</v>
       </c>
-      <c r="AV172" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -26735,9 +26217,6 @@
       <c r="AU173" t="n">
         <v>1</v>
       </c>
-      <c r="AV173" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -26889,9 +26368,6 @@
       <c r="AU174" t="n">
         <v>1</v>
       </c>
-      <c r="AV174" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -27025,9 +26501,6 @@
       <c r="AU175" t="n">
         <v>1</v>
       </c>
-      <c r="AV175" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -27179,9 +26652,6 @@
       <c r="AU176" t="n">
         <v>1</v>
       </c>
-      <c r="AV176" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -27333,9 +26803,6 @@
       <c r="AU177" t="n">
         <v>1</v>
       </c>
-      <c r="AV177" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -27469,9 +26936,6 @@
       <c r="AU178" t="n">
         <v>1</v>
       </c>
-      <c r="AV178" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -27623,9 +27087,6 @@
       <c r="AU179" t="n">
         <v>1</v>
       </c>
-      <c r="AV179" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -27777,9 +27238,6 @@
       <c r="AU180" t="n">
         <v>1</v>
       </c>
-      <c r="AV180" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -27913,9 +27371,6 @@
       <c r="AU181" t="n">
         <v>1</v>
       </c>
-      <c r="AV181" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -28067,9 +27522,6 @@
       <c r="AU182" t="n">
         <v>1</v>
       </c>
-      <c r="AV182" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -28221,9 +27673,6 @@
       <c r="AU183" t="n">
         <v>1</v>
       </c>
-      <c r="AV183" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -28357,9 +27806,6 @@
       <c r="AU184" t="n">
         <v>1</v>
       </c>
-      <c r="AV184" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -28511,9 +27957,6 @@
       <c r="AU185" t="n">
         <v>1</v>
       </c>
-      <c r="AV185" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -28686,9 +28129,6 @@
       </c>
       <c r="AU186" t="n">
         <v>0</v>
-      </c>
-      <c r="AV186" t="n">
-        <v>2.23</v>
       </c>
     </row>
     <row r="187">
@@ -28823,9 +28263,6 @@
       <c r="AU187" t="n">
         <v>0.2726743763182766</v>
       </c>
-      <c r="AV187" t="n">
-        <v>2.49</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -28977,9 +28414,6 @@
       <c r="AU188" t="n">
         <v>1</v>
       </c>
-      <c r="AV188" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -29131,9 +28565,6 @@
       <c r="AU189" t="n">
         <v>1</v>
       </c>
-      <c r="AV189" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -29267,9 +28698,6 @@
       <c r="AU190" t="n">
         <v>1</v>
       </c>
-      <c r="AV190" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -29421,9 +28849,6 @@
       <c r="AU191" t="n">
         <v>1</v>
       </c>
-      <c r="AV191" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -29575,9 +29000,6 @@
       <c r="AU192" t="n">
         <v>1</v>
       </c>
-      <c r="AV192" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -29711,9 +29133,6 @@
       <c r="AU193" t="n">
         <v>1</v>
       </c>
-      <c r="AV193" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -29865,9 +29284,6 @@
       <c r="AU194" t="n">
         <v>1</v>
       </c>
-      <c r="AV194" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -30019,9 +29435,6 @@
       <c r="AU195" t="n">
         <v>1</v>
       </c>
-      <c r="AV195" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -30155,9 +29568,6 @@
       <c r="AU196" t="n">
         <v>1</v>
       </c>
-      <c r="AV196" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -30309,9 +29719,6 @@
       <c r="AU197" t="n">
         <v>1</v>
       </c>
-      <c r="AV197" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -30463,9 +29870,6 @@
       <c r="AU198" t="n">
         <v>1</v>
       </c>
-      <c r="AV198" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -30599,9 +30003,6 @@
       <c r="AU199" t="n">
         <v>1</v>
       </c>
-      <c r="AV199" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -30753,9 +30154,6 @@
       <c r="AU200" t="n">
         <v>1</v>
       </c>
-      <c r="AV200" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -30907,9 +30305,6 @@
       <c r="AU201" t="n">
         <v>1</v>
       </c>
-      <c r="AV201" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -31043,9 +30438,6 @@
       <c r="AU202" t="n">
         <v>1</v>
       </c>
-      <c r="AV202" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -31197,9 +30589,6 @@
       <c r="AU203" t="n">
         <v>1</v>
       </c>
-      <c r="AV203" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -31351,9 +30740,6 @@
       <c r="AU204" t="n">
         <v>1</v>
       </c>
-      <c r="AV204" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -31487,9 +30873,6 @@
       <c r="AU205" t="n">
         <v>1</v>
       </c>
-      <c r="AV205" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -31641,9 +31024,6 @@
       <c r="AU206" t="n">
         <v>1</v>
       </c>
-      <c r="AV206" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -31795,9 +31175,6 @@
       <c r="AU207" t="n">
         <v>1</v>
       </c>
-      <c r="AV207" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -31931,9 +31308,6 @@
       <c r="AU208" t="n">
         <v>1</v>
       </c>
-      <c r="AV208" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -32085,9 +31459,6 @@
       <c r="AU209" t="n">
         <v>1</v>
       </c>
-      <c r="AV209" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -32239,9 +31610,6 @@
       <c r="AU210" t="n">
         <v>1</v>
       </c>
-      <c r="AV210" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -32375,9 +31743,6 @@
       <c r="AU211" t="n">
         <v>1</v>
       </c>
-      <c r="AV211" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -32529,9 +31894,6 @@
       <c r="AU212" t="n">
         <v>1</v>
       </c>
-      <c r="AV212" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -32683,9 +32045,6 @@
       <c r="AU213" t="n">
         <v>1</v>
       </c>
-      <c r="AV213" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -32819,9 +32178,6 @@
       <c r="AU214" t="n">
         <v>1</v>
       </c>
-      <c r="AV214" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -32973,9 +32329,6 @@
       <c r="AU215" t="n">
         <v>1</v>
       </c>
-      <c r="AV215" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -33127,9 +32480,6 @@
       <c r="AU216" t="n">
         <v>1</v>
       </c>
-      <c r="AV216" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -33263,9 +32613,6 @@
       <c r="AU217" t="n">
         <v>1</v>
       </c>
-      <c r="AV217" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -33417,9 +32764,6 @@
       <c r="AU218" t="n">
         <v>1</v>
       </c>
-      <c r="AV218" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -33571,9 +32915,6 @@
       <c r="AU219" t="n">
         <v>1</v>
       </c>
-      <c r="AV219" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -33707,9 +33048,6 @@
       <c r="AU220" t="n">
         <v>1</v>
       </c>
-      <c r="AV220" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -33884,9 +33222,6 @@
       </c>
       <c r="AU221" t="n">
         <v>0</v>
-      </c>
-      <c r="AV221" t="n">
-        <v>1.67</v>
       </c>
     </row>
     <row r="222">
@@ -34039,9 +33374,6 @@
       <c r="AU222" t="n">
         <v>1</v>
       </c>
-      <c r="AV222" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -34175,9 +33507,6 @@
       <c r="AU223" t="n">
         <v>0.8481481481481505</v>
       </c>
-      <c r="AV223" t="n">
-        <v>2.97</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -34329,9 +33658,6 @@
       <c r="AU224" t="n">
         <v>1</v>
       </c>
-      <c r="AV224" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -34483,9 +33809,6 @@
       <c r="AU225" t="n">
         <v>1</v>
       </c>
-      <c r="AV225" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -34619,9 +33942,6 @@
       <c r="AU226" t="n">
         <v>1</v>
       </c>
-      <c r="AV226" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -34773,9 +34093,6 @@
       <c r="AU227" t="n">
         <v>1</v>
       </c>
-      <c r="AV227" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -34927,9 +34244,6 @@
       <c r="AU228" t="n">
         <v>1</v>
       </c>
-      <c r="AV228" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -35063,9 +34377,6 @@
       <c r="AU229" t="n">
         <v>1</v>
       </c>
-      <c r="AV229" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -35217,9 +34528,6 @@
       <c r="AU230" t="n">
         <v>1</v>
       </c>
-      <c r="AV230" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -35371,9 +34679,6 @@
       <c r="AU231" t="n">
         <v>1</v>
       </c>
-      <c r="AV231" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -35507,9 +34812,6 @@
       <c r="AU232" t="n">
         <v>1</v>
       </c>
-      <c r="AV232" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -35661,9 +34963,6 @@
       <c r="AU233" t="n">
         <v>1</v>
       </c>
-      <c r="AV233" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -35815,9 +35114,6 @@
       <c r="AU234" t="n">
         <v>1</v>
       </c>
-      <c r="AV234" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -35951,9 +35247,6 @@
       <c r="AU235" t="n">
         <v>1</v>
       </c>
-      <c r="AV235" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -36105,9 +35398,6 @@
       <c r="AU236" t="n">
         <v>1</v>
       </c>
-      <c r="AV236" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -36259,9 +35549,6 @@
       <c r="AU237" t="n">
         <v>1</v>
       </c>
-      <c r="AV237" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -36395,9 +35682,6 @@
       <c r="AU238" t="n">
         <v>1</v>
       </c>
-      <c r="AV238" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -36549,9 +35833,6 @@
       <c r="AU239" t="n">
         <v>1</v>
       </c>
-      <c r="AV239" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -36703,9 +35984,6 @@
       <c r="AU240" t="n">
         <v>1</v>
       </c>
-      <c r="AV240" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -36839,9 +36117,6 @@
       <c r="AU241" t="n">
         <v>1</v>
       </c>
-      <c r="AV241" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -36993,9 +36268,6 @@
       <c r="AU242" t="n">
         <v>1</v>
       </c>
-      <c r="AV242" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -37147,9 +36419,6 @@
       <c r="AU243" t="n">
         <v>1</v>
       </c>
-      <c r="AV243" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -37283,9 +36552,6 @@
       <c r="AU244" t="n">
         <v>1</v>
       </c>
-      <c r="AV244" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -37437,9 +36703,6 @@
       <c r="AU245" t="n">
         <v>1</v>
       </c>
-      <c r="AV245" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -37591,9 +36854,6 @@
       <c r="AU246" t="n">
         <v>1</v>
       </c>
-      <c r="AV246" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -37727,9 +36987,6 @@
       <c r="AU247" t="n">
         <v>1</v>
       </c>
-      <c r="AV247" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -37881,9 +37138,6 @@
       <c r="AU248" t="n">
         <v>1</v>
       </c>
-      <c r="AV248" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -38035,9 +37289,6 @@
       <c r="AU249" t="n">
         <v>1</v>
       </c>
-      <c r="AV249" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -38171,9 +37422,6 @@
       <c r="AU250" t="n">
         <v>1</v>
       </c>
-      <c r="AV250" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -38325,9 +37573,6 @@
       <c r="AU251" t="n">
         <v>1</v>
       </c>
-      <c r="AV251" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -38479,9 +37724,6 @@
       <c r="AU252" t="n">
         <v>1</v>
       </c>
-      <c r="AV252" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -38615,9 +37857,6 @@
       <c r="AU253" t="n">
         <v>1</v>
       </c>
-      <c r="AV253" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -38769,9 +38008,6 @@
       <c r="AU254" t="n">
         <v>1</v>
       </c>
-      <c r="AV254" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -38923,9 +38159,6 @@
       <c r="AU255" t="n">
         <v>1</v>
       </c>
-      <c r="AV255" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -39059,9 +38292,6 @@
       <c r="AU256" t="n">
         <v>1</v>
       </c>
-      <c r="AV256" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -39213,9 +38443,6 @@
       <c r="AU257" t="n">
         <v>1</v>
       </c>
-      <c r="AV257" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -39367,9 +38594,6 @@
       <c r="AU258" t="n">
         <v>1</v>
       </c>
-      <c r="AV258" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -39503,9 +38727,6 @@
       <c r="AU259" t="n">
         <v>1</v>
       </c>
-      <c r="AV259" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -39657,9 +38878,6 @@
       <c r="AU260" t="n">
         <v>1</v>
       </c>
-      <c r="AV260" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -39811,9 +39029,6 @@
       <c r="AU261" t="n">
         <v>1</v>
       </c>
-      <c r="AV261" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -39947,9 +39162,6 @@
       <c r="AU262" t="n">
         <v>1</v>
       </c>
-      <c r="AV262" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -40101,9 +39313,6 @@
       <c r="AU263" t="n">
         <v>1</v>
       </c>
-      <c r="AV263" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -40255,9 +39464,6 @@
       <c r="AU264" t="n">
         <v>1</v>
       </c>
-      <c r="AV264" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -40391,9 +39597,6 @@
       <c r="AU265" t="n">
         <v>1</v>
       </c>
-      <c r="AV265" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -40545,9 +39748,6 @@
       <c r="AU266" t="n">
         <v>1</v>
       </c>
-      <c r="AV266" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -40699,9 +39899,6 @@
       <c r="AU267" t="n">
         <v>1</v>
       </c>
-      <c r="AV267" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -40835,9 +40032,6 @@
       <c r="AU268" t="n">
         <v>1</v>
       </c>
-      <c r="AV268" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -40989,9 +40183,6 @@
       <c r="AU269" t="n">
         <v>1</v>
       </c>
-      <c r="AV269" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -41143,9 +40334,6 @@
       <c r="AU270" t="n">
         <v>1</v>
       </c>
-      <c r="AV270" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -41279,9 +40467,6 @@
       <c r="AU271" t="n">
         <v>1</v>
       </c>
-      <c r="AV271" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -41433,9 +40618,6 @@
       <c r="AU272" t="n">
         <v>1</v>
       </c>
-      <c r="AV272" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -41587,9 +40769,6 @@
       <c r="AU273" t="n">
         <v>1</v>
       </c>
-      <c r="AV273" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -41723,9 +40902,6 @@
       <c r="AU274" t="n">
         <v>1</v>
       </c>
-      <c r="AV274" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -41877,9 +41053,6 @@
       <c r="AU275" t="n">
         <v>1</v>
       </c>
-      <c r="AV275" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -42031,9 +41204,6 @@
       <c r="AU276" t="n">
         <v>1</v>
       </c>
-      <c r="AV276" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -42167,9 +41337,6 @@
       <c r="AU277" t="n">
         <v>1</v>
       </c>
-      <c r="AV277" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -42321,9 +41488,6 @@
       <c r="AU278" t="n">
         <v>1</v>
       </c>
-      <c r="AV278" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -42475,9 +41639,6 @@
       <c r="AU279" t="n">
         <v>1</v>
       </c>
-      <c r="AV279" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -42611,9 +41772,6 @@
       <c r="AU280" t="n">
         <v>1</v>
       </c>
-      <c r="AV280" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -42765,9 +41923,6 @@
       <c r="AU281" t="n">
         <v>1</v>
       </c>
-      <c r="AV281" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -42919,9 +42074,6 @@
       <c r="AU282" t="n">
         <v>1</v>
       </c>
-      <c r="AV282" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -43055,9 +42207,6 @@
       <c r="AU283" t="n">
         <v>1</v>
       </c>
-      <c r="AV283" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -43209,9 +42358,6 @@
       <c r="AU284" t="n">
         <v>1</v>
       </c>
-      <c r="AV284" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -43363,9 +42509,6 @@
       <c r="AU285" t="n">
         <v>1</v>
       </c>
-      <c r="AV285" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -43499,9 +42642,6 @@
       <c r="AU286" t="n">
         <v>1</v>
       </c>
-      <c r="AV286" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -43653,9 +42793,6 @@
       <c r="AU287" t="n">
         <v>1</v>
       </c>
-      <c r="AV287" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -43807,9 +42944,6 @@
       <c r="AU288" t="n">
         <v>1</v>
       </c>
-      <c r="AV288" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -43943,9 +43077,6 @@
       <c r="AU289" t="n">
         <v>1</v>
       </c>
-      <c r="AV289" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -44097,9 +43228,6 @@
       <c r="AU290" t="n">
         <v>1</v>
       </c>
-      <c r="AV290" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -44251,9 +43379,6 @@
       <c r="AU291" t="n">
         <v>1</v>
       </c>
-      <c r="AV291" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -44387,9 +43512,6 @@
       <c r="AU292" t="n">
         <v>1</v>
       </c>
-      <c r="AV292" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -44541,9 +43663,6 @@
       <c r="AU293" t="n">
         <v>1</v>
       </c>
-      <c r="AV293" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -44695,9 +43814,6 @@
       <c r="AU294" t="n">
         <v>1</v>
       </c>
-      <c r="AV294" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -44831,9 +43947,6 @@
       <c r="AU295" t="n">
         <v>1</v>
       </c>
-      <c r="AV295" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -44985,9 +44098,6 @@
       <c r="AU296" t="n">
         <v>1</v>
       </c>
-      <c r="AV296" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -45139,9 +44249,6 @@
       <c r="AU297" t="n">
         <v>1</v>
       </c>
-      <c r="AV297" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -45275,9 +44382,6 @@
       <c r="AU298" t="n">
         <v>1</v>
       </c>
-      <c r="AV298" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -45429,9 +44533,6 @@
       <c r="AU299" t="n">
         <v>1</v>
       </c>
-      <c r="AV299" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -45583,9 +44684,6 @@
       <c r="AU300" t="n">
         <v>1</v>
       </c>
-      <c r="AV300" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -45719,9 +44817,6 @@
       <c r="AU301" t="n">
         <v>1</v>
       </c>
-      <c r="AV301" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -45873,9 +44968,6 @@
       <c r="AU302" t="n">
         <v>1</v>
       </c>
-      <c r="AV302" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -46027,9 +45119,6 @@
       <c r="AU303" t="n">
         <v>1</v>
       </c>
-      <c r="AV303" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -46163,9 +45252,6 @@
       <c r="AU304" t="n">
         <v>1</v>
       </c>
-      <c r="AV304" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -46317,9 +45403,6 @@
       <c r="AU305" t="n">
         <v>1</v>
       </c>
-      <c r="AV305" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -46471,9 +45554,6 @@
       <c r="AU306" t="n">
         <v>1</v>
       </c>
-      <c r="AV306" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -46607,9 +45687,6 @@
       <c r="AU307" t="n">
         <v>1</v>
       </c>
-      <c r="AV307" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -46784,9 +45861,6 @@
       </c>
       <c r="AU308" t="n">
         <v>0</v>
-      </c>
-      <c r="AV308" t="n">
-        <v>1.42</v>
       </c>
     </row>
     <row r="309">
@@ -46960,9 +46034,6 @@
       </c>
       <c r="AU309" t="n">
         <v>0</v>
-      </c>
-      <c r="AV309" t="n">
-        <v>1.58</v>
       </c>
     </row>
     <row r="310">
@@ -47097,9 +46168,6 @@
       <c r="AU310" t="n">
         <v>0</v>
       </c>
-      <c r="AV310" t="n">
-        <v>1.54</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -47251,9 +46319,6 @@
       <c r="AU311" t="n">
         <v>1</v>
       </c>
-      <c r="AV311" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -47405,9 +46470,6 @@
       <c r="AU312" t="n">
         <v>1</v>
       </c>
-      <c r="AV312" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -47541,9 +46603,6 @@
       <c r="AU313" t="n">
         <v>1</v>
       </c>
-      <c r="AV313" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -47695,9 +46754,6 @@
       <c r="AU314" t="n">
         <v>1</v>
       </c>
-      <c r="AV314" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -47849,9 +46905,6 @@
       <c r="AU315" t="n">
         <v>1</v>
       </c>
-      <c r="AV315" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -47985,9 +47038,6 @@
       <c r="AU316" t="n">
         <v>1</v>
       </c>
-      <c r="AV316" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -48139,9 +47189,6 @@
       <c r="AU317" t="n">
         <v>1</v>
       </c>
-      <c r="AV317" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -48293,9 +47340,6 @@
       <c r="AU318" t="n">
         <v>1</v>
       </c>
-      <c r="AV318" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -48429,9 +47473,6 @@
       <c r="AU319" t="n">
         <v>1</v>
       </c>
-      <c r="AV319" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -48606,9 +47647,6 @@
       </c>
       <c r="AU320" t="n">
         <v>0</v>
-      </c>
-      <c r="AV320" t="n">
-        <v>1.95</v>
       </c>
     </row>
     <row r="321">
@@ -48761,9 +47799,6 @@
       <c r="AU321" t="n">
         <v>1</v>
       </c>
-      <c r="AV321" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -48897,9 +47932,6 @@
       <c r="AU322" t="n">
         <v>0.7273256236815467</v>
       </c>
-      <c r="AV322" t="n">
-        <v>2.86</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -49051,9 +48083,6 @@
       <c r="AU323" t="n">
         <v>1</v>
       </c>
-      <c r="AV323" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -49205,9 +48234,6 @@
       <c r="AU324" t="n">
         <v>1</v>
       </c>
-      <c r="AV324" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -49341,9 +48367,6 @@
       <c r="AU325" t="n">
         <v>1</v>
       </c>
-      <c r="AV325" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -49495,9 +48518,6 @@
       <c r="AU326" t="n">
         <v>1</v>
       </c>
-      <c r="AV326" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -49649,9 +48669,6 @@
       <c r="AU327" t="n">
         <v>1</v>
       </c>
-      <c r="AV327" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -49785,9 +48802,6 @@
       <c r="AU328" t="n">
         <v>1</v>
       </c>
-      <c r="AV328" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -49939,9 +48953,6 @@
       <c r="AU329" t="n">
         <v>1</v>
       </c>
-      <c r="AV329" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -50093,9 +49104,6 @@
       <c r="AU330" t="n">
         <v>1</v>
       </c>
-      <c r="AV330" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -50229,9 +49237,6 @@
       <c r="AU331" t="n">
         <v>1</v>
       </c>
-      <c r="AV331" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -50406,9 +49411,6 @@
       </c>
       <c r="AU332" t="n">
         <v>0</v>
-      </c>
-      <c r="AV332" t="n">
-        <v>1.41</v>
       </c>
     </row>
     <row r="333">
@@ -50561,9 +49563,6 @@
       <c r="AU333" t="n">
         <v>1</v>
       </c>
-      <c r="AV333" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -50697,9 +49696,6 @@
       <c r="AU334" t="n">
         <v>0.7994350278115649</v>
       </c>
-      <c r="AV334" t="n">
-        <v>2.84</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -50851,9 +49847,6 @@
       <c r="AU335" t="n">
         <v>1</v>
       </c>
-      <c r="AV335" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -51005,9 +49998,6 @@
       <c r="AU336" t="n">
         <v>1</v>
       </c>
-      <c r="AV336" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -51141,9 +50131,6 @@
       <c r="AU337" t="n">
         <v>1</v>
       </c>
-      <c r="AV337" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -51318,9 +50305,6 @@
       </c>
       <c r="AU338" t="n">
         <v>0</v>
-      </c>
-      <c r="AV338" t="n">
-        <v>3.36</v>
       </c>
     </row>
     <row r="339">
@@ -51473,9 +50457,6 @@
       <c r="AU339" t="n">
         <v>1</v>
       </c>
-      <c r="AV339" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -51609,9 +50590,6 @@
       <c r="AU340" t="n">
         <v>0.7994350282482682</v>
       </c>
-      <c r="AV340" t="n">
-        <v>3.23</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -51786,9 +50764,6 @@
       </c>
       <c r="AU341" t="n">
         <v>0</v>
-      </c>
-      <c r="AV341" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="342">
@@ -51941,9 +50916,6 @@
       <c r="AU342" t="n">
         <v>1</v>
       </c>
-      <c r="AV342" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -52077,9 +51049,6 @@
       <c r="AU343" t="n">
         <v>0.7994350282482682</v>
       </c>
-      <c r="AV343" t="n">
-        <v>3.3</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -52231,9 +51200,6 @@
       <c r="AU344" t="n">
         <v>1</v>
       </c>
-      <c r="AV344" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -52385,9 +51351,6 @@
       <c r="AU345" t="n">
         <v>1</v>
       </c>
-      <c r="AV345" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -52521,9 +51484,6 @@
       <c r="AU346" t="n">
         <v>1</v>
       </c>
-      <c r="AV346" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -52675,9 +51635,6 @@
       <c r="AU347" t="n">
         <v>1</v>
       </c>
-      <c r="AV347" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -52829,9 +51786,6 @@
       <c r="AU348" t="n">
         <v>1</v>
       </c>
-      <c r="AV348" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -52965,9 +51919,6 @@
       <c r="AU349" t="n">
         <v>1</v>
       </c>
-      <c r="AV349" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -53119,9 +52070,6 @@
       <c r="AU350" t="n">
         <v>1</v>
       </c>
-      <c r="AV350" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -53273,9 +52221,6 @@
       <c r="AU351" t="n">
         <v>1</v>
       </c>
-      <c r="AV351" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -53409,9 +52354,6 @@
       <c r="AU352" t="n">
         <v>1</v>
       </c>
-      <c r="AV352" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -53563,9 +52505,6 @@
       <c r="AU353" t="n">
         <v>1</v>
       </c>
-      <c r="AV353" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -53717,9 +52656,6 @@
       <c r="AU354" t="n">
         <v>1</v>
       </c>
-      <c r="AV354" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -53853,9 +52789,6 @@
       <c r="AU355" t="n">
         <v>1</v>
       </c>
-      <c r="AV355" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -54007,9 +52940,6 @@
       <c r="AU356" t="n">
         <v>1</v>
       </c>
-      <c r="AV356" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -54161,9 +53091,6 @@
       <c r="AU357" t="n">
         <v>1</v>
       </c>
-      <c r="AV357" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -54297,9 +53224,6 @@
       <c r="AU358" t="n">
         <v>1</v>
       </c>
-      <c r="AV358" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -54451,9 +53375,6 @@
       <c r="AU359" t="n">
         <v>1</v>
       </c>
-      <c r="AV359" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -54605,9 +53526,6 @@
       <c r="AU360" t="n">
         <v>1</v>
       </c>
-      <c r="AV360" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -54741,9 +53659,6 @@
       <c r="AU361" t="n">
         <v>1</v>
       </c>
-      <c r="AV361" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -54895,9 +53810,6 @@
       <c r="AU362" t="n">
         <v>1</v>
       </c>
-      <c r="AV362" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -55049,9 +53961,6 @@
       <c r="AU363" t="n">
         <v>1</v>
       </c>
-      <c r="AV363" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -55185,9 +54094,6 @@
       <c r="AU364" t="n">
         <v>1</v>
       </c>
-      <c r="AV364" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -55339,9 +54245,6 @@
       <c r="AU365" t="n">
         <v>1</v>
       </c>
-      <c r="AV365" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -55493,9 +54396,6 @@
       <c r="AU366" t="n">
         <v>1</v>
       </c>
-      <c r="AV366" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -55629,9 +54529,6 @@
       <c r="AU367" t="n">
         <v>1</v>
       </c>
-      <c r="AV367" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -55783,9 +54680,6 @@
       <c r="AU368" t="n">
         <v>1</v>
       </c>
-      <c r="AV368" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -55937,9 +54831,6 @@
       <c r="AU369" t="n">
         <v>1</v>
       </c>
-      <c r="AV369" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -56073,9 +54964,6 @@
       <c r="AU370" t="n">
         <v>1</v>
       </c>
-      <c r="AV370" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -56227,9 +55115,6 @@
       <c r="AU371" t="n">
         <v>1</v>
       </c>
-      <c r="AV371" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -56381,9 +55266,6 @@
       <c r="AU372" t="n">
         <v>1</v>
       </c>
-      <c r="AV372" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -56517,9 +55399,6 @@
       <c r="AU373" t="n">
         <v>1</v>
       </c>
-      <c r="AV373" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -56671,9 +55550,6 @@
       <c r="AU374" t="n">
         <v>1</v>
       </c>
-      <c r="AV374" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -56825,9 +55701,6 @@
       <c r="AU375" t="n">
         <v>1</v>
       </c>
-      <c r="AV375" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -56961,9 +55834,6 @@
       <c r="AU376" t="n">
         <v>1</v>
       </c>
-      <c r="AV376" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -57115,9 +55985,6 @@
       <c r="AU377" t="n">
         <v>1</v>
       </c>
-      <c r="AV377" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -57269,9 +56136,6 @@
       <c r="AU378" t="n">
         <v>1</v>
       </c>
-      <c r="AV378" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -57405,9 +56269,6 @@
       <c r="AU379" t="n">
         <v>1</v>
       </c>
-      <c r="AV379" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -57559,9 +56420,6 @@
       <c r="AU380" t="n">
         <v>1</v>
       </c>
-      <c r="AV380" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -57713,9 +56571,6 @@
       <c r="AU381" t="n">
         <v>1</v>
       </c>
-      <c r="AV381" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -57849,9 +56704,6 @@
       <c r="AU382" t="n">
         <v>1</v>
       </c>
-      <c r="AV382" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -58003,9 +56855,6 @@
       <c r="AU383" t="n">
         <v>1</v>
       </c>
-      <c r="AV383" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -58157,9 +57006,6 @@
       <c r="AU384" t="n">
         <v>1</v>
       </c>
-      <c r="AV384" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -58293,9 +57139,6 @@
       <c r="AU385" t="n">
         <v>1</v>
       </c>
-      <c r="AV385" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -58447,9 +57290,6 @@
       <c r="AU386" t="n">
         <v>1</v>
       </c>
-      <c r="AV386" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -58601,9 +57441,6 @@
       <c r="AU387" t="n">
         <v>1</v>
       </c>
-      <c r="AV387" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -58737,9 +57574,6 @@
       <c r="AU388" t="n">
         <v>1</v>
       </c>
-      <c r="AV388" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -58891,9 +57725,6 @@
       <c r="AU389" t="n">
         <v>1</v>
       </c>
-      <c r="AV389" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -59045,9 +57876,6 @@
       <c r="AU390" t="n">
         <v>1</v>
       </c>
-      <c r="AV390" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -59181,9 +58009,6 @@
       <c r="AU391" t="n">
         <v>1</v>
       </c>
-      <c r="AV391" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -59335,9 +58160,6 @@
       <c r="AU392" t="n">
         <v>1</v>
       </c>
-      <c r="AV392" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -59489,9 +58311,6 @@
       <c r="AU393" t="n">
         <v>1</v>
       </c>
-      <c r="AV393" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -59625,9 +58444,6 @@
       <c r="AU394" t="n">
         <v>1</v>
       </c>
-      <c r="AV394" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -59779,9 +58595,6 @@
       <c r="AU395" t="n">
         <v>1</v>
       </c>
-      <c r="AV395" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -59933,9 +58746,6 @@
       <c r="AU396" t="n">
         <v>1</v>
       </c>
-      <c r="AV396" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -60069,9 +58879,6 @@
       <c r="AU397" t="n">
         <v>1</v>
       </c>
-      <c r="AV397" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -60223,9 +59030,6 @@
       <c r="AU398" t="n">
         <v>1</v>
       </c>
-      <c r="AV398" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -60377,9 +59181,6 @@
       <c r="AU399" t="n">
         <v>1</v>
       </c>
-      <c r="AV399" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -60513,9 +59314,6 @@
       <c r="AU400" t="n">
         <v>1</v>
       </c>
-      <c r="AV400" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -60667,9 +59465,6 @@
       <c r="AU401" t="n">
         <v>1</v>
       </c>
-      <c r="AV401" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -60821,9 +59616,6 @@
       <c r="AU402" t="n">
         <v>1</v>
       </c>
-      <c r="AV402" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -60957,9 +59749,6 @@
       <c r="AU403" t="n">
         <v>1</v>
       </c>
-      <c r="AV403" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -61111,9 +59900,6 @@
       <c r="AU404" t="n">
         <v>1</v>
       </c>
-      <c r="AV404" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -61265,9 +60051,6 @@
       <c r="AU405" t="n">
         <v>1</v>
       </c>
-      <c r="AV405" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -61401,9 +60184,6 @@
       <c r="AU406" t="n">
         <v>1</v>
       </c>
-      <c r="AV406" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -61555,9 +60335,6 @@
       <c r="AU407" t="n">
         <v>1</v>
       </c>
-      <c r="AV407" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -61709,9 +60486,6 @@
       <c r="AU408" t="n">
         <v>1</v>
       </c>
-      <c r="AV408" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -61845,9 +60619,6 @@
       <c r="AU409" t="n">
         <v>1</v>
       </c>
-      <c r="AV409" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -61999,9 +60770,6 @@
       <c r="AU410" t="n">
         <v>1</v>
       </c>
-      <c r="AV410" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -62153,9 +60921,6 @@
       <c r="AU411" t="n">
         <v>1</v>
       </c>
-      <c r="AV411" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -62289,9 +61054,6 @@
       <c r="AU412" t="n">
         <v>1</v>
       </c>
-      <c r="AV412" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -62443,9 +61205,6 @@
       <c r="AU413" t="n">
         <v>1</v>
       </c>
-      <c r="AV413" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -62597,9 +61356,6 @@
       <c r="AU414" t="n">
         <v>1</v>
       </c>
-      <c r="AV414" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -62733,9 +61489,6 @@
       <c r="AU415" t="n">
         <v>1</v>
       </c>
-      <c r="AV415" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -62887,9 +61640,6 @@
       <c r="AU416" t="n">
         <v>1</v>
       </c>
-      <c r="AV416" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -63041,9 +61791,6 @@
       <c r="AU417" t="n">
         <v>1</v>
       </c>
-      <c r="AV417" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -63177,9 +61924,6 @@
       <c r="AU418" t="n">
         <v>1</v>
       </c>
-      <c r="AV418" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -63331,9 +62075,6 @@
       <c r="AU419" t="n">
         <v>1</v>
       </c>
-      <c r="AV419" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -63485,9 +62226,6 @@
       <c r="AU420" t="n">
         <v>1</v>
       </c>
-      <c r="AV420" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -63621,9 +62359,6 @@
       <c r="AU421" t="n">
         <v>1</v>
       </c>
-      <c r="AV421" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -63775,9 +62510,6 @@
       <c r="AU422" t="n">
         <v>1</v>
       </c>
-      <c r="AV422" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -63929,9 +62661,6 @@
       <c r="AU423" t="n">
         <v>1</v>
       </c>
-      <c r="AV423" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -64065,9 +62794,6 @@
       <c r="AU424" t="n">
         <v>1</v>
       </c>
-      <c r="AV424" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -64219,9 +62945,6 @@
       <c r="AU425" t="n">
         <v>1</v>
       </c>
-      <c r="AV425" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -64373,9 +63096,6 @@
       <c r="AU426" t="n">
         <v>1</v>
       </c>
-      <c r="AV426" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -64509,9 +63229,6 @@
       <c r="AU427" t="n">
         <v>1</v>
       </c>
-      <c r="AV427" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -64663,9 +63380,6 @@
       <c r="AU428" t="n">
         <v>1</v>
       </c>
-      <c r="AV428" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -64817,9 +63531,6 @@
       <c r="AU429" t="n">
         <v>1</v>
       </c>
-      <c r="AV429" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -64953,9 +63664,6 @@
       <c r="AU430" t="n">
         <v>1</v>
       </c>
-      <c r="AV430" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -65107,9 +63815,6 @@
       <c r="AU431" t="n">
         <v>1</v>
       </c>
-      <c r="AV431" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -65261,9 +63966,6 @@
       <c r="AU432" t="n">
         <v>1</v>
       </c>
-      <c r="AV432" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -65397,9 +64099,6 @@
       <c r="AU433" t="n">
         <v>1</v>
       </c>
-      <c r="AV433" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -65551,9 +64250,6 @@
       <c r="AU434" t="n">
         <v>1</v>
       </c>
-      <c r="AV434" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -65705,9 +64401,6 @@
       <c r="AU435" t="n">
         <v>1</v>
       </c>
-      <c r="AV435" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -65841,9 +64534,6 @@
       <c r="AU436" t="n">
         <v>1</v>
       </c>
-      <c r="AV436" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -65995,9 +64685,6 @@
       <c r="AU437" t="n">
         <v>1</v>
       </c>
-      <c r="AV437" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -66149,9 +64836,6 @@
       <c r="AU438" t="n">
         <v>1</v>
       </c>
-      <c r="AV438" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -66285,9 +64969,6 @@
       <c r="AU439" t="n">
         <v>1</v>
       </c>
-      <c r="AV439" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -66439,9 +65120,6 @@
       <c r="AU440" t="n">
         <v>1</v>
       </c>
-      <c r="AV440" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -66593,9 +65271,6 @@
       <c r="AU441" t="n">
         <v>1</v>
       </c>
-      <c r="AV441" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -66729,9 +65404,6 @@
       <c r="AU442" t="n">
         <v>1</v>
       </c>
-      <c r="AV442" t="n">
-        <v>3.2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
